--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/test/Unit Test_Rapporto avanzamento test ALEX_SVIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/test/Unit Test_Rapporto avanzamento test ALEX_SVIL.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16925"/>
   <workbookPr codeName="Questa_cartella_di_lavoro" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tools\progetto Intesa\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fernando.monaco\Desktop\ISP\SorgentiGIT\client-intesa\earlywarning-pom\earlywarning-config\src\baf-configuration\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Copertina" sheetId="4" r:id="rId1"/>
@@ -20,9 +20,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Lista dei casi di test'!$F$1:$F$105</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Sintesi!$O$10</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId4"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
     <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
 </workbook>
@@ -241,7 +241,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="191">
   <si>
     <t>Applicazione</t>
   </si>
@@ -849,15 +849,60 @@
   <si>
     <t>accensione della BR12</t>
   </si>
+  <si>
+    <t>BR15 = 1 or BR16 = 1</t>
+  </si>
+  <si>
+    <t>Exception 1 – AQR Trigger</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exception 3 - Other AQR </t>
+  </si>
+  <si>
+    <t>BR12 = 1</t>
+  </si>
+  <si>
+    <t>change color (if the result matrix is RED, the final color become LIGHT BLUE)</t>
+  </si>
+  <si>
+    <t>assign final color = LIGHT BLUE</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>FINAL COLOR</t>
+  </si>
+  <si>
+    <t>"Dark Blue" color: number of cases that registrer the conditions AQR Fatal Indicators</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Light Blue" color: number of cases that registrer the conditions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Red" color: number of cases that registrer the conditions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Orange" color: number of cases that registrer the conditions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Yellow" color: number of cases that registrer the conditions </t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Green" color: number of cases that registrer the conditions </t>
+  </si>
+  <si>
+    <t>The number of cases reported is correct</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="000"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,6 +1029,19 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1457,7 +1515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="122">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1644,8 +1702,31 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1672,22 +1753,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1755,11 +1820,29 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2652,7 +2735,7 @@
         <xdr:cNvPr id="2" name="Immagine 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2682,61 +2765,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Dessi, Michele" refreshedDate="42767.495728009257" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="114">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
-  </cacheSource>
-  <cacheFields count="11">
-    <cacheField name="Applicazione" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="111"/>
-    </cacheField>
-    <cacheField name="Funzioni oggetto del test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Moduli oggetto del test" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Nome del test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Descrizione test" numFmtId="0">
-      <sharedItems containsBlank="1" longText="1"/>
-    </cacheField>
-    <cacheField name="Esito atteso" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Note fornitore" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Stato test" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
-        <s v="ok"/>
-        <m/>
-        <s v="Da eseguire" u="1"/>
-        <s v="ko" u="1"/>
-        <s v="In esecuzione" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Data consegna" numFmtId="14">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Verifica DSI" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Dessi, Michele" refreshedDate="42767.495728009257" createdVersion="4" refreshedVersion="5" minRefreshableVersion="3" recordCount="114">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Monaco, Fernando" refreshedDate="42773.504897685183" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="102">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:L1048576" sheet="Lista dei casi di test"/>
   </cacheSource>
@@ -2745,7 +2774,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="111"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="101"/>
     </cacheField>
     <cacheField name="Funzioni oggetto del test" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -2796,8 +2825,62 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Monaco, Fernando" refreshedDate="42773.504898611114" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="102">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Applicazione" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="101"/>
+    </cacheField>
+    <cacheField name="Funzioni oggetto del test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Moduli oggetto del test" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Nome del test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Descrizione test" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+    <cacheField name="Esito atteso" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Note fornitore" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Stato test" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="ok"/>
+        <m/>
+        <s v="Da eseguire" u="1"/>
+        <s v="ko" u="1"/>
+        <s v="In esecuzione" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Data consegna" numFmtId="14">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Verifica DSI" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="114">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="102">
   <r>
     <s v="AAAP"/>
     <n v="1"/>
@@ -2807,9 +2890,10 @@
     <s v="Indicator 1 - Days past due: For each Client Homogeneous NDG, assign the count of the number of days past due at the report date "/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="AAAP"/>
@@ -2820,9 +2904,10 @@
     <s v="Error on Indicator 1 - Days past due. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="AAAP"/>
@@ -2833,9 +2918,10 @@
     <s v="Indicator 2 - Past Due &gt; 90: For each Client Homogeneous NDG, the indicator is “true” (value 1) in presence of days past due &gt; 90 on any facility at the debtor level, 0 otherwise"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
   </r>
   <r>
     <s v="AAAP"/>
@@ -2846,1445 +2932,1388 @@
     <s v="Error on Indicator 2 - Past Due &gt; 90. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="5"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
     <s v="Indicator 6 - Credit lines revoked: For each Client Homogeneous NDG, the indicator is “true” (value 1) in presence of credit lines revoked, otherwise the field is null."/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
     <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Error or Indicator 6 - Credit lines revoked:  "/>
-    <m/>
-    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="6"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error or Indicator 6 - Credit lines revoked:  The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
     <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="5"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="7"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 7 - Overdue amount/exposure amount: For each Client Homogeneous NDG, the value associated to the indicator is the result of the Ratio between:_x000a_- Numerator: Overdue amount (the past due amount for cash loans for credit facilities: credit cards, overdraft, revolving and each loans without amortization schedule)_x000a_- Denominator: Exposure amount (the total on balance exposure on cash loans (credit facilities: credit cards, overdraft, revolving and each loans without amortization schedule)"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="6"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="8"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 7 - Overdue amount/exposure amount. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="7"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="9"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 8 - Account turnover oscillation: For each Client Homogeneous NDG, the indicator is the Ratio between the quaterly average and annual average of the sum of monthly inflows . The inflows are in current account."/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="8"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 8 - Account turnover oscillation. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <n v="10"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 15: For each Client Homogeneous NDG, the indicator is “true” (value 1) in presence of overdraft limit average utilization &gt; 80% - 6 months. The overdraft limit is calculated at the last business day of the month."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <n v="11"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 15:The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="9"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 8 - Account turnover oscillation. The conventional value (cut-off value) is assigned in cases of Indicator is out of cut-off limit"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="10"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 13 - Business current accounts average balance - 12 months: For each Client Homogeneous NDG, the indicator is the average amount of the business account in the last 12 months. The amount is calculated at last day of the month (without overdraft)."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="11"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 13 - Business current accounts average balance - 12 months. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="AAAP"/>
     <n v="12"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 13 - Business current accounts average balance - 12 months. The conventional value (cut-off value) is assigned in cases of Indicator is out of cut-off limit"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="13"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 14 - Number of business current accounts: For each Client Homogeneous NDG, the indicator is the number of business current accounts at client level."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="14"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 14 - Number of business current accounts. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="15"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 16 - Default: For each Client Homogeneous NDG, the indicator is “true” (value 1) if the counterparty is classified as non performing, otherwise the field is null. Indicator is active if a client, in the moment of calculation of indicators, has a default longer than 5 days in the amount higher than 10.000 RSD (for SME and LC segments) and 1.000 RSD (for SB segment)."/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="16"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="13"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 16 - Default. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <n v="14"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 17: For each Client Homogeneous NDG, the indicator is “true” (value 1) if the counterparty is classified as defined as default according/article 178 of CRR, 0 otherwise"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <n v="15"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 17 : The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <n v="16"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 20 - Missing financial statements: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if client financial statements related to the previous closed financial year are missing, otherwise the field is null."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
     <n v="17"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 20 - Missing financial statements. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <n v="18"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 23: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) in presence of delinquency on contract/commitment, otherwise the field is null."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <n v="19"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 23 : The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <n v="20"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="indicator 28: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) in presence of change of main activity in the last 12 months, otherwise the field is null."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <n v="21"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 28 : The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="22"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 31 - For each Client Homogeneous NDG, the value associated to the indicator is &quot;true&quot; (value 1) if (collateral expiry date - report date) &lt;= 90 days for collateral, otherwise the field is null. The indicator uses the minimal expiring date in case of more collaterals."/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="18"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="23"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 31 - Past due amount. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="19"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="24"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 40 - Loan to value ratio: For each Client Homogeneous NDG, assign the value of the approved amount for loans/total value of collateral"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="20"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="25"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 40 - Loan to value ratio. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="21"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="26"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 44 - Past due amount: For each Client Homogeneous NDG, assign the amount past due at the report date"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="22"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="27"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 44 - Past due amount. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="23"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 44 - Past due amount. The conventional value (cut-off value) is assigned in cases of Indicator is out of cut-off limit"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <n v="28"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 45: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if client don't breach any credit line covenant, 0 otherwise"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <n v="29"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 45: The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="24"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <n v="30"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 51 - Overdraft: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) in presence of overdraft amount &gt; 0, 0 otherwise"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <n v="31"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 51 - Overdraft. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="32"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 56 - Outstanding + overdue/Approved amount for loans: For each Client Homogeneous NDG, assign the value from ratio of:_x000a_Numerator: (Exposure on balance + overdue amount for loans)_x000a_Denominator: Approved amount for loans"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="25"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="33"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 56 - Outstanding + overdue/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="26"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="34"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 56 - Outstanding + overdue/Approved amount for loans. The conventional value (cut-off value) is assigned in cases of Indicator is out of cut-off limit"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="27"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="35"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 58 - Months with overdue: For each Client Homogeneous NDG, assign the Continuous number of months with overdue in the last quarter"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="28"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="36"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 58 - Months with overdue. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="29"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 60 - Current accounts average inflows - last 12 months: For each Client Homogeneous NDG, assign the value of Average inflows of all business accounts in the last 12 months"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="30"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 60 - Current accounts average inflows - last 12 months. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="31"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 61 - Currents accounts outflows average - last 12 months: For each Client Homogeneous NDG, assign the value of Average outflows of all business accounts in the last 12 months"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="32"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 61 - Currents accounts outflows average - last 12 months. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="33"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 62 - Current accounts std deviation - last 12 months: For each Client Homogeneous NDG, assign the value of Standard deviation of all business account balance in the last 12 months"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="34"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 62 - Current accounts std deviation - last 12 months. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="35"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 63 - Current accounts inflows std deviation - last 12 months: For each Client Homogeneous NDG, assign the value of Standard deviation of inflows of all business account balance in the last 12 months"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="36"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 63 - Current accounts inflows std deviation - last 12 months. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="AAAP"/>
     <n v="37"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 64 - Total debt/EBITDA: For each Client Homogeneous NDG, assign the value from ratio of:_x000a_Numerator: (Total debt)_x000a_Denominator: EBITDA"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="38"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 64 - Total debt/EBITDA. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="39"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 65 -For each Client Homogeneous NDG, assign the value from ratio of:_x000a_Numerator: Total debt per interest due_x000a_Denominator: total debt per interest due older than 30 days"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="40"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="38"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 65 - Total debt/EBITDA. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <n v="39"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 177 - For each Client Homogeneous NDG, assign the number of days of over limit overdraft for current accounts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <n v="40"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 177 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
   <r>
     <s v="AAAP"/>
     <n v="41"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 172 - Decrease in current accounts inflows in last month: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if Sum of inflows in current accounts_month t &lt; Sum of inflows in current accounts_month t-1, 0 otherwise"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="42"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 172 - Decrease in current accounts inflows in last month. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="43"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 173 - Decrease in outflows in current accounts in last month: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if Sum of outflows from current accounts_month t &lt; Sum of outflows from current accounts_month t-1, 0 otherwise"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="44"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 173 - Decrease in outflows in current accounts in last month. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="45"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 174 - Account cumulated inflows in current accounts in the month &gt; credit line * 3: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if Sum of inflows in current account over the month &gt; (Current account approved overdraft*3), 0 otherwise"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="46"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 174 - Account cumulated inflows in current accounts in the month &gt; credit line * 3. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="47"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 175 - Account cumulated outflows in current accounts in the month &gt; credit line * 3: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if Sum of outflows from current account over the month &gt; (Current account approved overdraft*3) , 0 otherwise"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="48"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 175 - Account cumulated outflows in current accounts in the month &gt; credit line * 3. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="49"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 180 - Monthly cumulated inflows/credit line: For each Client Homogeneous NDG, assign the value from the ratio of: _x000a_Numerator: sum of inflows in current account over the month_x000a_Denominator: Overdraft limit (as of the last business day of the month)"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="50"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 180 - Monthly cumulated inflows/credit line. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="51"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 181 - Monthly cumulated outflows/monthly cumulated inflows: For each Client Homogeneous NDG, assign the value from the ratio of: _x000a_Numerator: sum of outflows from current accounts over the month_x000a_Denominator: Sum of inflows in current account over the month"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="52"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 181 - Monthly cumulated outflows/monthly cumulated inflows. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="53"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 182 - Monthly cumulated outflows/credit line: For each Client Homogeneous NDG, assign the value from the ratio of: _x000a_Numerator: Sum of outflows from current account over the month_x000a_Denominator: Overdraft limit (as of the last business day of the month)"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="54"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 182 - Monthly cumulated outflows/credit line. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="55"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 183 - (Cumulated monthly Inflows + cumulated monthly outflows)/credit line: For each Client Homogeneous NDG, assign the value from the ratio of: _x000a_Numerator: (Sum of inflows in current account over the month + Sum of outflows from current account overt the month)_x000a_Denominator: Overdraft limit (as of the last business day of the month)"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="56"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 183 - (Cumulated monthly Inflows + cumulated monthly outflows)/credit line. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="57"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 186 - Number of monthly outflow transactions in current accounts/number of monthly inflow transactions in current accounts: For each Client Homogeneous NDG, assign the value from the ratio of: _x000a_Numerator: Number of outflows from current account over the month_x000a_Denominator: Number of inflows in current account over the month"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="58"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 186 - Number of monthly outflow transactions in current accounts/number of monthly inflow transactions in current accounts. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="59"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 187 - Monthly cumulated inflows amount in current accounts- variation in the last month: For each Client Homogeneous NDG, assign the value from formula: ((Sum of inflows in current account over the month_month t)/(Sum of inflows in current account over the month_month t-1))-1"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="60"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 187 - Monthly cumulated inflows amount in current accounts- variation in the last month. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="61"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 188 - Monthly cumulated outflows amount in current accounts - variation in the last month: For each Client Homogeneous NDG, assign the value from formula: ((Sum of outflows from current account over the month_month t)/(Sum of outflows from current account over the month_month t-1))-1"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="62"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 188 - Monthly cumulated outflows amount in current accounts - variation in the last month. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="63"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 189 - For each Client Homogeneous NDG, assign the max number of unpaid days for the last 4 unpaid instalments"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="64"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 189 - Amount of unpaid overdue - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="65"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 190 - For each Client Homogeneous NDG, assign the amount overdue for other contracts (no loans, no amortizing products)"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="66"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="42"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 190 - Amount of unpaid overdue - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="67"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="43"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 191 - For each Client Homogeneous NDG, assign the amount overdue for leasing contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="44"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 191 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="45"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 192 - For each Client Homogeneous NDG, assign the amount overdue for amortizing products"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="68"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="46"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 192 - Amount of unpaid overdue - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="69"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="47"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 193 - Amount of unpaid overdue - loans: For each Client Homogeneous NDG, assign the amount overdue for loans"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="70"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="48"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 193 - Amount of unpaid overdue - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="71"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="49"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 194 - For each Client Homogeneous NDG, assign the amount overdue for amortizing products"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="72"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="50"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 194 - Amount of unpaid instalments - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="73"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="51"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicaotr 195 - For each Client Homogeneous NDG, assign the amount of unpaid instalments for leasing contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="52"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 195 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="53"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 196 - For each Client Homogeneous NDG, assign the amount of unpaid instalments for amortizing products"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="74"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="54"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 196 - Amount of unpaid instalments - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="75"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="55"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 197 - Amount of unpaid instalments - loans: For each Client Homogeneous NDG, assign the amount of unpaid instalments for loans"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="76"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="56"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 197 - Amount of unpaid instalments - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="77"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="57"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 198 - For each Client Homogeneous NDG, assign the overdue amount for other contracts (no loans, no amortizing products)/Approved amount for other contracts (no loans, no amortizing products)"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="78"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="58"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 198 - Overdue amount/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="79"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="59"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicaor 199 - For each Client Homogeneous NDG, assign the overdue amount for leasing contracts/Approved amount for leasing contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="60"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 199 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="61"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 200 - For each Client Homogeneous NDG, assign the overdue amount for amortizing products/Approved amount for amortizing products"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="80"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="62"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 200 - Overdue amount/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="81"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="63"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 201 - Overdue amount/Approved amount for loans: For each Client Homogeneous NDG, assign the overdue amount for loans/Approved amount for loans"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="82"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="64"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 201 - Overdue amount/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="83"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="65"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 202 - For each Client Homogeneous NDG, assign the overdue amount for other contracts (no loans, no amortizing products)/Initial approved amount for other contracts (no loans, no amortizing products)"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="66"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 202 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="67"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 203 - For each Client Homogeneous NDG, assign the value from ratio:_x000a_Numerator: Overdue amount for leasing contracts_x000a_Denominator: Initial approved amount for leasing contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="68"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 203 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="69"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 204 - For each Client Homogeneous NDG, assign the value from ratio:_x000a_Numerator: Overdue amount for amortizing products_x000a_Denominator: Initial approved amount for amortizing products"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="70"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 204 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="71"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 205 - For each Client Homogeneous NDG, assign the value from ratio:_x000a_Numerator: Overdue amount_x000a_Denominator: Initial approved amount"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="72"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 205 -The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="73"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 206 - For each Client Homogeneous NDG, assign the number of unpaid instalments for other contracts (no amortizing products, no leasing)"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="84"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="74"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 206  cases: _x000a_Indicator is missing -&gt; 0_x000a_indicator &lt; 0 -&gt; 0"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="85"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="75"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 207 - For each Client Homogeneous NDG, assign the number od unpaid instalments for leasing contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="76"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 207 -The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="77"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 208 - For each Client Homogeneous NDG, assign the number od unpaid instalments for amortizing products"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="86"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="78"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 208 cases: _x000a_Indicator is missing -&gt; 0_x000a_indicator &lt; 0 -&gt; 0"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="87"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="79"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 209 - For each Client Homogeneous NDG, assign the number of unpaid instalments for loans calculated as amortizing products + leasing contracts + other contracts"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="88"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="80"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 209 cases: _x000a_Indicator is missing -&gt; 0_x000a_indicator &lt; 0 -&gt; 0"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="89"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="81"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 211 - Number of days from last delinquency on loans: For each Client Homogeneous NDG, assign the number of days from last delinquency on loans"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="90"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="82"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 211 - Number of days from last delinquency on loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="91"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 212 - Number of entries in blockade in last twelve months: For each Client Homogeneous NDG, assign the number of entries in blockade in last 12 months"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="83"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 219 - Monitoring rating: For each Client Homogeneous NDG, the indicator shows the  internal rating grade"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="92"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 212 - Number of entries in blockade in last twelve months. The conventional value is assigned for the cases: _x000a_Indicator is missing_x000a_"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="84"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 219 - Monitoring rating. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="93"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 212 - Number of entries in blockade in last twelve months. The conventional value (cut-off value) is assigned in cases of Indicator is out of cut-off limit"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="85"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 220 - IndicatorFor each Client Homogeneous NDG, the indicator is “true” (value 1) if the past due exceeded the materiality threshold, otherwise the field is 0."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="86"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 220 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="94"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 213 - Total number of days in blockade in last six months: For each Client Homogeneous NDG, assign the total number of days in blockade in last 6 months"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="87"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 221 - The flag is valued at 1 if there is the presence of a past due towards employees and public creditors._x000a_The indicator is manual and there are no possible cases of error."/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="95"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 213 - Total number of days in blockade in last six months. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="96"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 213 - Total number of days in blockade in last six months. The conventional value (cut-off value) is assigned in cases of Indicator is out of cut-off limit"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="97"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 221 - The flag is valued at 1 if there is the presence of a past due towards employees and public creditors._x000a_The indicator is manual and there are no possible cases of error."/>
-    <m/>
     <s v="non valorizzati"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
     <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="98"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="88"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 221. Conventional value assigned, for the cases of Elementary variables are missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="99"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="89"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 222 - For each Client Homogeneous NDG, assign the value 0 o 1, depending on the value assigned in the CMC system._x000a_The flag is valued at 1 if there is the presence of a significant reduction in the value of the collateral if the sale thereof is necessary for the repayment of the loan."/>
-    <m/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
     <s v="non valorizzati"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
     <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="100"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="90"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 222. Conventional value assigned, for the cases of Elementary variables are missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="101"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="91"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 223 - For each Client Homogeneous NDG, assign the value 0 o 1, depending on the value assigned in the CMC system._x000a_The indicator is valued at 1 when there is a significant decrease in the forecast of future cash flows."/>
-    <m/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
     <s v="non valorizzati"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
     <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="102"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="92"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 223. Conventional value assigned, for the cases of Elementary variables are missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="103"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="93"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="indicator 224 - For each Client Homogeneous NDG, assign one of the following value:_x000a_- Broken Covenant_x000a_- Stessed Covenant_x000a_- Covenant expired and not monitored_x000a_- Covenant not respected and not recovered"/>
-    <m/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
     <s v="non valorizzati"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
     <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="104"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="94"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 224. Conventional value assigned, for the cases of Elementary variables are missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="105"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="95"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 225 - For each Client Homogeneous NDG, assign the value 0 o 1, depending on the value assigned in the CMC system._x000a_The indicator is valued to 1 if a temporary suspension to the negotiation of a bond is verified for temporary difficulty of the issuing counterpart."/>
-    <m/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
     <s v="non valorizzati"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
     <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="106"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="96"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 225. Conventional value assigned, for the cases of Elementary variables are missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="107"/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="97"/>
     <s v="EWS APP"/>
     <m/>
     <s v="BR01"/>
     <s v="Past Due &gt; 90 Equals TRUE"/>
     <s v="accensione della BR01 "/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="108"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="98"/>
     <s v="EWS APP"/>
     <m/>
     <s v="BR08"/>
     <s v="Materiality threshold Equals TRUE"/>
     <s v="accensione della BR08"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="109"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="99"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="BR12"/>
+    <s v="Overdraft"/>
+    <s v="accensione della BR12"/>
+    <m/>
+    <s v="ok"/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="100"/>
     <s v="EWS APP"/>
     <m/>
     <s v="BR15"/>
     <s v="Days Past Due &gt; 30 Equals TRUE"/>
     <s v="accensione della BR15"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="110"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="101"/>
     <s v="EWS APP"/>
     <m/>
     <s v="BR16"/>
     <s v="Past due public creditors / employees Equals TRUE"/>
     <s v="accensione della BR16"/>
     <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="111"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="BR17"/>
-    <s v="Bond Trade Suspended Equals TRUE"/>
-    <s v="accensione della BR17"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
     <x v="1"/>
-    <m/>
-    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="114">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="102">
   <r>
     <s v="AAAP"/>
     <n v="1"/>
@@ -4294,10 +4323,9 @@
     <s v="Indicator 1 - Days past due: For each Client Homogeneous NDG, assign the count of the number of days past due at the report date "/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="AAAP"/>
@@ -4308,10 +4336,9 @@
     <s v="Error on Indicator 1 - Days past due. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="AAAP"/>
@@ -4322,10 +4349,9 @@
     <s v="Indicator 2 - Past Due &gt; 90: For each Client Homogeneous NDG, the indicator is “true” (value 1) in presence of days past due &gt; 90 on any facility at the debtor level, 0 otherwise"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="AAAP"/>
@@ -4336,1556 +4362,1289 @@
     <s v="Error on Indicator 2 - Past Due &gt; 90. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="0"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="5"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
     <s v="Indicator 6 - Credit lines revoked: For each Client Homogeneous NDG, the indicator is “true” (value 1) in presence of credit lines revoked, otherwise the field is null."/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <s v="Error or Indicator 6 - Credit lines revoked:  "/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="5"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="6"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error or Indicator 6 - Credit lines revoked:  The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="7"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 7 - Overdue amount/exposure amount: For each Client Homogeneous NDG, the value associated to the indicator is the result of the Ratio between:_x000a_- Numerator: Overdue amount (the past due amount for cash loans for credit facilities: credit cards, overdraft, revolving and each loans without amortization schedule)_x000a_- Denominator: Exposure amount (the total on balance exposure on cash loans (credit facilities: credit cards, overdraft, revolving and each loans without amortization schedule)"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="6"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="8"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 7 - Overdue amount/exposure amount. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="7"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="9"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 8 - Account turnover oscillation: For each Client Homogeneous NDG, the indicator is the Ratio between the quaterly average and annual average of the sum of monthly inflows . The inflows are in current account."/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="8"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 8 - Account turnover oscillation. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="10"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 15: For each Client Homogeneous NDG, the indicator is “true” (value 1) in presence of overdraft limit average utilization &gt; 80% - 6 months. The overdraft limit is calculated at the last business day of the month."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="11"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 15:The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="9"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 8 - Account turnover oscillation. The conventional value (cut-off value) is assigned in cases of Indicator is out of cut-off limit"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="10"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 13 - Business current accounts average balance - 12 months: For each Client Homogeneous NDG, the indicator is the average amount of the business account in the last 12 months. The amount is calculated at last day of the month (without overdraft)."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="11"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 13 - Business current accounts average balance - 12 months. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="AAAP"/>
     <n v="12"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 13 - Business current accounts average balance - 12 months. The conventional value (cut-off value) is assigned in cases of Indicator is out of cut-off limit"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="13"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 14 - Number of business current accounts: For each Client Homogeneous NDG, the indicator is the number of business current accounts at client level."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="14"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 14 - Number of business current accounts. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="15"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 16 - Default: For each Client Homogeneous NDG, the indicator is “true” (value 1) if the counterparty is classified as non performing, otherwise the field is null. Indicator is active if a client, in the moment of calculation of indicators, has a default longer than 5 days in the amount higher than 10.000 RSD (for SME and LC segments) and 1.000 RSD (for SB segment)."/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="16"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="13"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 16 - Default. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="14"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 17: For each Client Homogeneous NDG, the indicator is “true” (value 1) if the counterparty is classified as defined as default according/article 178 of CRR, 0 otherwise"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="15"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 17 : The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="16"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 20 - Missing financial statements: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if client financial statements related to the previous closed financial year are missing, otherwise the field is null."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
     <n v="17"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 20 - Missing financial statements. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="18"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 23: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) in presence of delinquency on contract/commitment, otherwise the field is null."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="19"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 23 : The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="20"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="indicator 28: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) in presence of change of main activity in the last 12 months, otherwise the field is null."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="21"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 28 : The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="22"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 31 - For each Client Homogeneous NDG, the value associated to the indicator is &quot;true&quot; (value 1) if (collateral expiry date - report date) &lt;= 90 days for collateral, otherwise the field is null. The indicator uses the minimal expiring date in case of more collaterals."/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="18"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="23"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 31 - Past due amount. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="19"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="24"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 40 - Loan to value ratio: For each Client Homogeneous NDG, assign the value of the approved amount for loans/total value of collateral"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="20"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="25"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 40 - Loan to value ratio. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="21"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="26"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 44 - Past due amount: For each Client Homogeneous NDG, assign the amount past due at the report date"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="22"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="27"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 44 - Past due amount. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="23"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 44 - Past due amount. The conventional value (cut-off value) is assigned in cases of Indicator is out of cut-off limit"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="28"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 45: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if client don't breach any credit line covenant, 0 otherwise"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="29"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 45: The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="24"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="30"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 51 - Overdraft: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) in presence of overdraft amount &gt; 0, 0 otherwise"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="31"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 51 - Overdraft. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="32"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 56 - Outstanding + overdue/Approved amount for loans: For each Client Homogeneous NDG, assign the value from ratio of:_x000a_Numerator: (Exposure on balance + overdue amount for loans)_x000a_Denominator: Approved amount for loans"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="25"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="33"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 56 - Outstanding + overdue/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="26"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="34"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 56 - Outstanding + overdue/Approved amount for loans. The conventional value (cut-off value) is assigned in cases of Indicator is out of cut-off limit"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="27"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="35"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 58 - Months with overdue: For each Client Homogeneous NDG, assign the Continuous number of months with overdue in the last quarter"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="28"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="36"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 58 - Months with overdue. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="29"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 60 - Current accounts average inflows - last 12 months: For each Client Homogeneous NDG, assign the value of Average inflows of all business accounts in the last 12 months"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="30"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 60 - Current accounts average inflows - last 12 months. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="31"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 61 - Currents accounts outflows average - last 12 months: For each Client Homogeneous NDG, assign the value of Average outflows of all business accounts in the last 12 months"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="32"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 61 - Currents accounts outflows average - last 12 months. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="33"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 62 - Current accounts std deviation - last 12 months: For each Client Homogeneous NDG, assign the value of Standard deviation of all business account balance in the last 12 months"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="34"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 62 - Current accounts std deviation - last 12 months. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="35"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 63 - Current accounts inflows std deviation - last 12 months: For each Client Homogeneous NDG, assign the value of Standard deviation of inflows of all business account balance in the last 12 months"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="36"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 63 - Current accounts inflows std deviation - last 12 months. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="AAAP"/>
     <n v="37"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 64 - Total debt/EBITDA: For each Client Homogeneous NDG, assign the value from ratio of:_x000a_Numerator: (Total debt)_x000a_Denominator: EBITDA"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="38"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 64 - Total debt/EBITDA. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="39"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 65 -For each Client Homogeneous NDG, assign the value from ratio of:_x000a_Numerator: Total debt per interest due_x000a_Denominator: total debt per interest due older than 30 days"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="40"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="38"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 65 - Total debt/EBITDA. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="39"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 177 - For each Client Homogeneous NDG, assign the number of days of over limit overdraft for current accounts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <n v="40"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 177 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
   </r>
   <r>
     <s v="AAAP"/>
     <n v="41"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 172 - Decrease in current accounts inflows in last month: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if Sum of inflows in current accounts_month t &lt; Sum of inflows in current accounts_month t-1, 0 otherwise"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="42"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 172 - Decrease in current accounts inflows in last month. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="43"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 173 - Decrease in outflows in current accounts in last month: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if Sum of outflows from current accounts_month t &lt; Sum of outflows from current accounts_month t-1, 0 otherwise"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="44"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 173 - Decrease in outflows in current accounts in last month. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="45"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 174 - Account cumulated inflows in current accounts in the month &gt; credit line * 3: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if Sum of inflows in current account over the month &gt; (Current account approved overdraft*3), 0 otherwise"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="46"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 174 - Account cumulated inflows in current accounts in the month &gt; credit line * 3. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="47"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 175 - Account cumulated outflows in current accounts in the month &gt; credit line * 3: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if Sum of outflows from current account over the month &gt; (Current account approved overdraft*3) , 0 otherwise"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="48"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 175 - Account cumulated outflows in current accounts in the month &gt; credit line * 3. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="49"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 180 - Monthly cumulated inflows/credit line: For each Client Homogeneous NDG, assign the value from the ratio of: _x000a_Numerator: sum of inflows in current account over the month_x000a_Denominator: Overdraft limit (as of the last business day of the month)"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="50"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 180 - Monthly cumulated inflows/credit line. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="51"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 181 - Monthly cumulated outflows/monthly cumulated inflows: For each Client Homogeneous NDG, assign the value from the ratio of: _x000a_Numerator: sum of outflows from current accounts over the month_x000a_Denominator: Sum of inflows in current account over the month"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="52"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 181 - Monthly cumulated outflows/monthly cumulated inflows. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="53"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 182 - Monthly cumulated outflows/credit line: For each Client Homogeneous NDG, assign the value from the ratio of: _x000a_Numerator: Sum of outflows from current account over the month_x000a_Denominator: Overdraft limit (as of the last business day of the month)"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="54"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 182 - Monthly cumulated outflows/credit line. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="55"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 183 - (Cumulated monthly Inflows + cumulated monthly outflows)/credit line: For each Client Homogeneous NDG, assign the value from the ratio of: _x000a_Numerator: (Sum of inflows in current account over the month + Sum of outflows from current account overt the month)_x000a_Denominator: Overdraft limit (as of the last business day of the month)"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="56"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 183 - (Cumulated monthly Inflows + cumulated monthly outflows)/credit line. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="57"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 186 - Number of monthly outflow transactions in current accounts/number of monthly inflow transactions in current accounts: For each Client Homogeneous NDG, assign the value from the ratio of: _x000a_Numerator: Number of outflows from current account over the month_x000a_Denominator: Number of inflows in current account over the month"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="58"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 186 - Number of monthly outflow transactions in current accounts/number of monthly inflow transactions in current accounts. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="59"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 187 - Monthly cumulated inflows amount in current accounts- variation in the last month: For each Client Homogeneous NDG, assign the value from formula: ((Sum of inflows in current account over the month_month t)/(Sum of inflows in current account over the month_month t-1))-1"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="60"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 187 - Monthly cumulated inflows amount in current accounts- variation in the last month. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="61"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 188 - Monthly cumulated outflows amount in current accounts - variation in the last month: For each Client Homogeneous NDG, assign the value from formula: ((Sum of outflows from current account over the month_month t)/(Sum of outflows from current account over the month_month t-1))-1"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="62"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 188 - Monthly cumulated outflows amount in current accounts - variation in the last month. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="63"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 189 - For each Client Homogeneous NDG, assign the max number of unpaid days for the last 4 unpaid instalments"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="64"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 189 - Amount of unpaid overdue - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="65"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 190 - For each Client Homogeneous NDG, assign the amount overdue for other contracts (no loans, no amortizing products)"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="66"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="42"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 190 - Amount of unpaid overdue - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="67"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="43"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 191 - For each Client Homogeneous NDG, assign the amount overdue for leasing contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="44"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 191 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="45"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 192 - For each Client Homogeneous NDG, assign the amount overdue for amortizing products"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="68"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="46"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 192 - Amount of unpaid overdue - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="69"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="47"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 193 - Amount of unpaid overdue - loans: For each Client Homogeneous NDG, assign the amount overdue for loans"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="70"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="48"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 193 - Amount of unpaid overdue - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="71"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="49"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 194 - For each Client Homogeneous NDG, assign the amount overdue for amortizing products"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="72"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="50"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 194 - Amount of unpaid instalments - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="73"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="51"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicaotr 195 - For each Client Homogeneous NDG, assign the amount of unpaid instalments for leasing contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="52"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 195 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="53"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 196 - For each Client Homogeneous NDG, assign the amount of unpaid instalments for amortizing products"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="74"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="54"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 196 - Amount of unpaid instalments - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="75"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="55"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 197 - Amount of unpaid instalments - loans: For each Client Homogeneous NDG, assign the amount of unpaid instalments for loans"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="76"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="56"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 197 - Amount of unpaid instalments - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="77"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="57"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 198 - For each Client Homogeneous NDG, assign the overdue amount for other contracts (no loans, no amortizing products)/Approved amount for other contracts (no loans, no amortizing products)"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="78"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="58"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 198 - Overdue amount/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="79"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="59"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicaor 199 - For each Client Homogeneous NDG, assign the overdue amount for leasing contracts/Approved amount for leasing contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="60"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 199 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="61"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 200 - For each Client Homogeneous NDG, assign the overdue amount for amortizing products/Approved amount for amortizing products"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="80"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="62"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 200 - Overdue amount/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="81"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="63"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 201 - Overdue amount/Approved amount for loans: For each Client Homogeneous NDG, assign the overdue amount for loans/Approved amount for loans"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="82"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="64"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 201 - Overdue amount/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="83"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="65"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 202 - For each Client Homogeneous NDG, assign the overdue amount for other contracts (no loans, no amortizing products)/Initial approved amount for other contracts (no loans, no amortizing products)"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="66"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 202 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="67"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 203 - For each Client Homogeneous NDG, assign the value from ratio:_x000a_Numerator: Overdue amount for leasing contracts_x000a_Denominator: Initial approved amount for leasing contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="68"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 203 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="69"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 204 - For each Client Homogeneous NDG, assign the value from ratio:_x000a_Numerator: Overdue amount for amortizing products_x000a_Denominator: Initial approved amount for amortizing products"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="70"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 204 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="71"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 205 - For each Client Homogeneous NDG, assign the value from ratio:_x000a_Numerator: Overdue amount_x000a_Denominator: Initial approved amount"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="72"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 205 -The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="73"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 206 - For each Client Homogeneous NDG, assign the number of unpaid instalments for other contracts (no amortizing products, no leasing)"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="84"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="74"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 206  cases: _x000a_Indicator is missing -&gt; 0_x000a_indicator &lt; 0 -&gt; 0"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="85"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="75"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 207 - For each Client Homogeneous NDG, assign the number od unpaid instalments for leasing contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="76"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 207 -The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="77"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 208 - For each Client Homogeneous NDG, assign the number od unpaid instalments for amortizing products"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="86"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="78"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 208 cases: _x000a_Indicator is missing -&gt; 0_x000a_indicator &lt; 0 -&gt; 0"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="87"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="79"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 209 - For each Client Homogeneous NDG, assign the number of unpaid instalments for loans calculated as amortizing products + leasing contracts + other contracts"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="88"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="80"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 209 cases: _x000a_Indicator is missing -&gt; 0_x000a_indicator &lt; 0 -&gt; 0"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="89"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="81"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 211 - Number of days from last delinquency on loans: For each Client Homogeneous NDG, assign the number of days from last delinquency on loans"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="90"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="82"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 211 - Number of days from last delinquency on loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="91"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 212 - Number of entries in blockade in last twelve months: For each Client Homogeneous NDG, assign the number of entries in blockade in last 12 months"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="83"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 219 - Monitoring rating: For each Client Homogeneous NDG, the indicator shows the  internal rating grade"/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="92"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 212 - Number of entries in blockade in last twelve months. The conventional value is assigned for the cases: _x000a_Indicator is missing_x000a_"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="84"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 219 - Monitoring rating. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="93"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 212 - Number of entries in blockade in last twelve months. The conventional value (cut-off value) is assigned in cases of Indicator is out of cut-off limit"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="85"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 220 - IndicatorFor each Client Homogeneous NDG, the indicator is “true” (value 1) if the past due exceeded the materiality threshold, otherwise the field is 0."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="86"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 220 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="94"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 213 - Total number of days in blockade in last six months: For each Client Homogeneous NDG, assign the total number of days in blockade in last 6 months"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="87"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 221 - The flag is valued at 1 if there is the presence of a past due towards employees and public creditors._x000a_The indicator is manual and there are no possible cases of error."/>
     <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="95"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 213 - Total number of days in blockade in last six months. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="96"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 213 - Total number of days in blockade in last six months. The conventional value (cut-off value) is assigned in cases of Indicator is out of cut-off limit"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="97"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 221 - The flag is valued at 1 if there is the presence of a past due towards employees and public creditors._x000a_The indicator is manual and there are no possible cases of error."/>
-    <m/>
     <s v="non valorizzati"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="98"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="88"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 221. Conventional value assigned, for the cases of Elementary variables are missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="99"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="89"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 222 - For each Client Homogeneous NDG, assign the value 0 o 1, depending on the value assigned in the CMC system._x000a_The flag is valued at 1 if there is the presence of a significant reduction in the value of the collateral if the sale thereof is necessary for the repayment of the loan."/>
-    <m/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
     <s v="non valorizzati"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="100"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="90"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 222. Conventional value assigned, for the cases of Elementary variables are missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="101"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="91"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 223 - For each Client Homogeneous NDG, assign the value 0 o 1, depending on the value assigned in the CMC system._x000a_The indicator is valued at 1 when there is a significant decrease in the forecast of future cash flows."/>
-    <m/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
     <s v="non valorizzati"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="102"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="92"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 223. Conventional value assigned, for the cases of Elementary variables are missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="103"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="93"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="indicator 224 - For each Client Homogeneous NDG, assign one of the following value:_x000a_- Broken Covenant_x000a_- Stessed Covenant_x000a_- Covenant expired and not monitored_x000a_- Covenant not respected and not recovered"/>
-    <m/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
     <s v="non valorizzati"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="104"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="94"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 224. Conventional value assigned, for the cases of Elementary variables are missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="105"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="95"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Indicator 225 - For each Client Homogeneous NDG, assign the value 0 o 1, depending on the value assigned in the CMC system._x000a_The indicator is valued to 1 if a temporary suspension to the negotiation of a bond is verified for temporary difficulty of the issuing counterpart."/>
-    <m/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
     <s v="non valorizzati"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="106"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="96"/>
     <s v="EWS APP"/>
     <m/>
     <s v="REQB0 - Indicators"/>
     <s v="Error on Indicator 225. Conventional value assigned, for the cases of Elementary variables are missing"/>
     <s v="The conventional values are correctly reported by SNDG in the test subset"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="107"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="97"/>
     <s v="EWS APP"/>
     <m/>
     <s v="BR01"/>
     <s v="Past Due &gt; 90 Equals TRUE"/>
     <s v="accensione della BR01 "/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
     <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="108"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="98"/>
     <s v="EWS APP"/>
     <m/>
     <s v="BR08"/>
     <s v="Materiality threshold Equals TRUE"/>
     <s v="accensione della BR08"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
     <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="109"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="99"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="BR12"/>
+    <s v="Overdraft"/>
+    <s v="accensione della BR12"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="100"/>
     <s v="EWS APP"/>
     <m/>
     <s v="BR15"/>
     <s v="Days Past Due &gt; 30 Equals TRUE"/>
     <s v="accensione della BR15"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
     <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="110"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="101"/>
     <s v="EWS APP"/>
     <m/>
     <s v="BR16"/>
     <s v="Past due public creditors / employees Equals TRUE"/>
     <s v="accensione della BR16"/>
     <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
     <x v="1"/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="111"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="BR17"/>
-    <s v="Bond Trade Suspended Equals TRUE"/>
-    <s v="accensione della BR17"/>
-    <m/>
-    <s v="ok"/>
-    <m/>
-    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
     <x v="1"/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="L10:M13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -6033,7 +5792,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
   <location ref="B7:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="11">
     <pivotField showAll="0"/>
@@ -6245,7 +6004,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="5" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H10:I14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -6482,6 +6241,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6517,6 +6293,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6700,9 +6493,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -6717,7 +6510,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -6732,7 +6525,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
@@ -6747,7 +6540,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A4" s="2"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6762,7 +6555,7 @@
       <c r="L4" s="4"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -6777,7 +6570,7 @@
       <c r="L5" s="7"/>
       <c r="M5" s="1"/>
     </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -6792,7 +6585,7 @@
       <c r="L6" s="7"/>
       <c r="M6" s="1"/>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -6807,7 +6600,7 @@
       <c r="L7" s="7"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
@@ -6822,7 +6615,7 @@
       <c r="L8" s="7"/>
       <c r="M8" s="1"/>
     </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
@@ -6837,7 +6630,7 @@
       <c r="L9" s="7"/>
       <c r="M9" s="1"/>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -6852,7 +6645,7 @@
       <c r="L10" s="7"/>
       <c r="M10" s="1"/>
     </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="5"/>
       <c r="B11" s="8" t="s">
         <v>6</v>
@@ -6869,7 +6662,7 @@
       <c r="L11" s="7"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="5"/>
       <c r="B12" s="9" t="s">
         <v>7</v>
@@ -6886,7 +6679,7 @@
       <c r="L12" s="7"/>
       <c r="M12" s="1"/>
     </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="5"/>
       <c r="B13" s="9" t="s">
         <v>8</v>
@@ -6903,7 +6696,7 @@
       <c r="L13" s="7"/>
       <c r="M13" s="1"/>
     </row>
-    <row r="14" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="5"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -6918,7 +6711,7 @@
       <c r="L14" s="7"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="5"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -6933,7 +6726,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6"/>
       <c r="C16" s="6"/>
@@ -6948,7 +6741,7 @@
       <c r="L16" s="7"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A17" s="5"/>
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
@@ -6963,7 +6756,7 @@
       <c r="L17" s="7"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="5"/>
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
@@ -6978,7 +6771,7 @@
       <c r="L18" s="7"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="5"/>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
@@ -6993,7 +6786,7 @@
       <c r="L19" s="7"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="5"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
@@ -7008,7 +6801,7 @@
       <c r="L20" s="7"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="5"/>
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
@@ -7023,7 +6816,7 @@
       <c r="L21" s="7"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="5"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
@@ -7038,7 +6831,7 @@
       <c r="L22" s="7"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A23" s="5"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -7053,86 +6846,86 @@
       <c r="L23" s="7"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="77"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="77"/>
-      <c r="J24" s="77"/>
-      <c r="K24" s="78"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="85"/>
+      <c r="E24" s="85"/>
+      <c r="F24" s="85"/>
+      <c r="G24" s="85"/>
+      <c r="H24" s="85"/>
+      <c r="I24" s="85"/>
+      <c r="J24" s="85"/>
+      <c r="K24" s="86"/>
       <c r="L24" s="7"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
-      <c r="B25" s="79" t="s">
+      <c r="B25" s="87" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="80"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="80"/>
-      <c r="G25" s="80"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="80"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="81"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="88"/>
+      <c r="G25" s="88"/>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="89"/>
       <c r="L25" s="7"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
-      <c r="B26" s="79"/>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="80"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="81"/>
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="88"/>
+      <c r="E26" s="88"/>
+      <c r="F26" s="88"/>
+      <c r="G26" s="88"/>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="89"/>
       <c r="L26" s="7"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
-      <c r="B27" s="79" t="s">
+      <c r="B27" s="87" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="80"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="80"/>
-      <c r="G27" s="80"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="80"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="81"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="88"/>
+      <c r="E27" s="88"/>
+      <c r="F27" s="88"/>
+      <c r="G27" s="88"/>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="89"/>
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" ht="22.5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="82"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
-      <c r="J28" s="83"/>
-      <c r="K28" s="84"/>
+      <c r="B28" s="90"/>
+      <c r="C28" s="91"/>
+      <c r="D28" s="91"/>
+      <c r="E28" s="91"/>
+      <c r="F28" s="91"/>
+      <c r="G28" s="91"/>
+      <c r="H28" s="91"/>
+      <c r="I28" s="91"/>
+      <c r="J28" s="91"/>
+      <c r="K28" s="92"/>
       <c r="L28" s="7"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A29" s="5"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
@@ -7147,7 +6940,7 @@
       <c r="L29" s="7"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A30" s="5"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
@@ -7162,7 +6955,7 @@
       <c r="L30" s="7"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A31" s="5"/>
       <c r="B31" s="6"/>
       <c r="C31" s="6"/>
@@ -7177,7 +6970,7 @@
       <c r="L31" s="7"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A32" s="5"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -7192,7 +6985,7 @@
       <c r="L32" s="7"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A33" s="5"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -7207,7 +7000,7 @@
       <c r="L33" s="7"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A34" s="5"/>
       <c r="B34" s="6"/>
       <c r="C34" s="6"/>
@@ -7222,7 +7015,7 @@
       <c r="L34" s="7"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="5"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
@@ -7237,7 +7030,7 @@
       <c r="L35" s="7"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A36" s="5"/>
       <c r="B36" s="6"/>
       <c r="C36" s="6"/>
@@ -7252,167 +7045,167 @@
       <c r="L36" s="7"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="74" t="s">
+      <c r="B37" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="74"/>
-      <c r="D37" s="75" t="s">
+      <c r="C37" s="78"/>
+      <c r="D37" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="75"/>
-      <c r="K37" s="75"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="79"/>
+      <c r="I37" s="79"/>
+      <c r="J37" s="79"/>
+      <c r="K37" s="79"/>
       <c r="L37" s="7"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="74" t="s">
+      <c r="B38" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="75" t="s">
+      <c r="C38" s="78"/>
+      <c r="D38" s="79" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="75"/>
-      <c r="F38" s="75"/>
-      <c r="G38" s="75"/>
-      <c r="H38" s="75"/>
-      <c r="I38" s="75"/>
-      <c r="J38" s="75"/>
-      <c r="K38" s="75"/>
+      <c r="E38" s="79"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="79"/>
+      <c r="H38" s="79"/>
+      <c r="I38" s="79"/>
+      <c r="J38" s="79"/>
+      <c r="K38" s="79"/>
       <c r="L38" s="7"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="74" t="s">
+      <c r="B39" s="78" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="74"/>
-      <c r="D39" s="75" t="s">
+      <c r="C39" s="78"/>
+      <c r="D39" s="79" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="75"/>
-      <c r="F39" s="75"/>
-      <c r="G39" s="75"/>
-      <c r="H39" s="75"/>
-      <c r="I39" s="75"/>
-      <c r="J39" s="75"/>
-      <c r="K39" s="75"/>
+      <c r="E39" s="79"/>
+      <c r="F39" s="79"/>
+      <c r="G39" s="79"/>
+      <c r="H39" s="79"/>
+      <c r="I39" s="79"/>
+      <c r="J39" s="79"/>
+      <c r="K39" s="79"/>
       <c r="L39" s="7"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="74" t="s">
+      <c r="B40" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="74"/>
-      <c r="D40" s="75" t="s">
+      <c r="C40" s="78"/>
+      <c r="D40" s="79" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="75"/>
-      <c r="F40" s="75"/>
-      <c r="G40" s="75"/>
-      <c r="H40" s="75"/>
-      <c r="I40" s="75"/>
-      <c r="J40" s="75"/>
-      <c r="K40" s="75"/>
+      <c r="E40" s="79"/>
+      <c r="F40" s="79"/>
+      <c r="G40" s="79"/>
+      <c r="H40" s="79"/>
+      <c r="I40" s="79"/>
+      <c r="J40" s="79"/>
+      <c r="K40" s="79"/>
       <c r="L40" s="7"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="74" t="s">
+      <c r="B41" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="74"/>
-      <c r="D41" s="75" t="s">
+      <c r="C41" s="78"/>
+      <c r="D41" s="79" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="75"/>
-      <c r="F41" s="75"/>
-      <c r="G41" s="75"/>
-      <c r="H41" s="75"/>
-      <c r="I41" s="75"/>
-      <c r="J41" s="75"/>
-      <c r="K41" s="75"/>
+      <c r="E41" s="79"/>
+      <c r="F41" s="79"/>
+      <c r="G41" s="79"/>
+      <c r="H41" s="79"/>
+      <c r="I41" s="79"/>
+      <c r="J41" s="79"/>
+      <c r="K41" s="79"/>
       <c r="L41" s="7"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="74" t="s">
+      <c r="B42" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="74"/>
-      <c r="D42" s="85" t="s">
+      <c r="C42" s="78"/>
+      <c r="D42" s="83" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="86"/>
-      <c r="F42" s="75" t="s">
+      <c r="E42" s="82"/>
+      <c r="F42" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="75"/>
-      <c r="H42" s="75" t="s">
+      <c r="G42" s="79"/>
+      <c r="H42" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="75"/>
-      <c r="J42" s="75"/>
-      <c r="K42" s="75"/>
+      <c r="I42" s="79"/>
+      <c r="J42" s="79"/>
+      <c r="K42" s="79"/>
       <c r="L42" s="7"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="74" t="s">
+      <c r="B43" s="78" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="74"/>
-      <c r="D43" s="75" t="s">
+      <c r="C43" s="78"/>
+      <c r="D43" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="75"/>
-      <c r="F43" s="75"/>
-      <c r="G43" s="75"/>
-      <c r="H43" s="75"/>
-      <c r="I43" s="75"/>
-      <c r="J43" s="75"/>
-      <c r="K43" s="75"/>
+      <c r="E43" s="79"/>
+      <c r="F43" s="79"/>
+      <c r="G43" s="79"/>
+      <c r="H43" s="79"/>
+      <c r="I43" s="79"/>
+      <c r="J43" s="79"/>
+      <c r="K43" s="79"/>
       <c r="L43" s="7"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="74" t="s">
+      <c r="B44" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="74"/>
-      <c r="D44" s="89">
+      <c r="C44" s="78"/>
+      <c r="D44" s="80">
         <v>42670</v>
       </c>
-      <c r="E44" s="90"/>
-      <c r="F44" s="86"/>
-      <c r="G44" s="75" t="s">
+      <c r="E44" s="81"/>
+      <c r="F44" s="82"/>
+      <c r="G44" s="79" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="75"/>
-      <c r="I44" s="75"/>
-      <c r="J44" s="89">
+      <c r="H44" s="79"/>
+      <c r="I44" s="79"/>
+      <c r="J44" s="80">
         <v>42670</v>
       </c>
-      <c r="K44" s="86"/>
+      <c r="K44" s="82"/>
       <c r="L44" s="7"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A45" s="5"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -7427,7 +7220,7 @@
       <c r="L45" s="7"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A46" s="5"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -7442,7 +7235,7 @@
       <c r="L46" s="7"/>
       <c r="M46" s="1"/>
     </row>
-    <row r="47" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A47" s="5"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -7457,41 +7250,41 @@
       <c r="L47" s="7"/>
       <c r="M47" s="1"/>
     </row>
-    <row r="48" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="87" t="s">
+      <c r="B48" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="87"/>
-      <c r="D48" s="87"/>
-      <c r="E48" s="87"/>
-      <c r="F48" s="87"/>
-      <c r="G48" s="87"/>
-      <c r="H48" s="87"/>
-      <c r="I48" s="87"/>
-      <c r="J48" s="87"/>
-      <c r="K48" s="87"/>
+      <c r="C48" s="76"/>
+      <c r="D48" s="76"/>
+      <c r="E48" s="76"/>
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="I48" s="76"/>
+      <c r="J48" s="76"/>
+      <c r="K48" s="76"/>
       <c r="L48" s="7"/>
       <c r="M48" s="1"/>
     </row>
-    <row r="49" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="88" t="s">
+      <c r="B49" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="88"/>
-      <c r="D49" s="88"/>
-      <c r="E49" s="88"/>
-      <c r="F49" s="88"/>
-      <c r="G49" s="88"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="88"/>
-      <c r="J49" s="88"/>
-      <c r="K49" s="88"/>
+      <c r="C49" s="77"/>
+      <c r="D49" s="77"/>
+      <c r="E49" s="77"/>
+      <c r="F49" s="77"/>
+      <c r="G49" s="77"/>
+      <c r="H49" s="77"/>
+      <c r="I49" s="77"/>
+      <c r="J49" s="77"/>
+      <c r="K49" s="77"/>
       <c r="L49" s="7"/>
       <c r="M49" s="1"/>
     </row>
-    <row r="50" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A50" s="5"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
@@ -7506,7 +7299,7 @@
       <c r="L50" s="7"/>
       <c r="M50" s="1"/>
     </row>
-    <row r="51" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -7521,7 +7314,7 @@
       <c r="L51" s="12"/>
       <c r="M51" s="1"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A52" s="1"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
@@ -7538,6 +7331,25 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:K42"/>
     <mergeCell ref="B48:K48"/>
     <mergeCell ref="B49:K49"/>
     <mergeCell ref="B43:C43"/>
@@ -7546,25 +7358,6 @@
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="J44:K44"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:K42"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7574,68 +7367,68 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Foglio2"/>
-  <dimension ref="A1:Q104"/>
+  <dimension ref="A1:Q112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+    <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H112" sqref="H112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="62" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.88671875" style="62" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5" style="62" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="49.140625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="30.85546875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.44140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="62" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49.109375" style="62" customWidth="1"/>
+    <col min="7" max="7" width="30.88671875" style="62" customWidth="1"/>
     <col min="8" max="8" width="15" style="62" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" style="62" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.33203125" style="62" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12" style="72" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="62" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.140625" style="62" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="9.140625" style="62"/>
-    <col min="15" max="15" width="9.140625" style="62" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="62" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.109375" style="62" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="9.109375" style="62"/>
+    <col min="15" max="15" width="9.109375" style="62" customWidth="1"/>
     <col min="16" max="16" width="3" style="62" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="62"/>
+    <col min="17" max="17" width="11.44140625" style="62" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.109375" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="93" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" s="95" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="94"/>
-      <c r="I1" s="94"/>
-      <c r="J1" s="94"/>
-      <c r="K1" s="95"/>
-      <c r="L1" s="96" t="s">
+      <c r="B1" s="96"/>
+      <c r="C1" s="96"/>
+      <c r="D1" s="96"/>
+      <c r="E1" s="96"/>
+      <c r="F1" s="96"/>
+      <c r="G1" s="96"/>
+      <c r="H1" s="96"/>
+      <c r="I1" s="96"/>
+      <c r="J1" s="96"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="98" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" s="91" t="s">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="93" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="92"/>
-      <c r="C2" s="92"/>
-      <c r="D2" s="92"/>
-      <c r="E2" s="92"/>
-      <c r="F2" s="92"/>
-      <c r="G2" s="92"/>
-      <c r="H2" s="92"/>
-      <c r="I2" s="92"/>
-      <c r="J2" s="92"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="97"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="99"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
         <v>0</v>
       </c>
@@ -7679,7 +7472,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:17" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A4" s="65" t="s">
         <v>108</v>
       </c>
@@ -7716,7 +7509,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:17" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A5" s="65" t="s">
         <v>108</v>
       </c>
@@ -7750,7 +7543,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:17" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A6" s="65" t="s">
         <v>108</v>
       </c>
@@ -7781,7 +7574,7 @@
         <v>Non coerente</v>
       </c>
     </row>
-    <row r="7" spans="1:17" s="71" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" s="71" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="65" t="s">
         <v>108</v>
       </c>
@@ -7812,7 +7605,7 @@
         <v>Non coerente</v>
       </c>
     </row>
-    <row r="8" spans="1:17" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A8" s="65" t="s">
         <v>108</v>
       </c>
@@ -7840,7 +7633,7 @@
       <c r="K8" s="65"/>
       <c r="L8" s="70"/>
     </row>
-    <row r="9" spans="1:17" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A9" s="65" t="s">
         <v>108</v>
       </c>
@@ -7868,7 +7661,7 @@
       <c r="K9" s="65"/>
       <c r="L9" s="70"/>
     </row>
-    <row r="10" spans="1:17" s="71" customFormat="1" ht="127.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" s="71" customFormat="1" ht="132" x14ac:dyDescent="0.3">
       <c r="A10" s="65" t="s">
         <v>108</v>
       </c>
@@ -7896,7 +7689,7 @@
       <c r="K10" s="65"/>
       <c r="L10" s="70"/>
     </row>
-    <row r="11" spans="1:17" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A11" s="65" t="s">
         <v>108</v>
       </c>
@@ -7924,7 +7717,7 @@
       <c r="K11" s="65"/>
       <c r="L11" s="70"/>
     </row>
-    <row r="12" spans="1:17" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A12" s="65" t="s">
         <v>108</v>
       </c>
@@ -7952,8 +7745,10 @@
       <c r="K12" s="65"/>
       <c r="L12" s="70"/>
     </row>
-    <row r="13" spans="1:17" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
+    <row r="13" spans="1:17" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B13" s="66">
         <v>10</v>
       </c>
@@ -7978,8 +7773,10 @@
       <c r="K13" s="65"/>
       <c r="L13" s="70"/>
     </row>
-    <row r="14" spans="1:17" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
+    <row r="14" spans="1:17" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B14" s="66">
         <v>11</v>
       </c>
@@ -8004,7 +7801,7 @@
       <c r="K14" s="65"/>
       <c r="L14" s="70"/>
     </row>
-    <row r="15" spans="1:17" s="71" customFormat="1" ht="89.25" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" s="71" customFormat="1" ht="92.4" x14ac:dyDescent="0.3">
       <c r="A15" s="65" t="s">
         <v>108</v>
       </c>
@@ -8032,7 +7829,7 @@
       <c r="K15" s="65"/>
       <c r="L15" s="70"/>
     </row>
-    <row r="16" spans="1:17" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A16" s="65" t="s">
         <v>108</v>
       </c>
@@ -8060,8 +7857,10 @@
       <c r="K16" s="65"/>
       <c r="L16" s="70"/>
     </row>
-    <row r="17" spans="1:12" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
+    <row r="17" spans="1:12" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B17" s="66">
         <v>14</v>
       </c>
@@ -8086,8 +7885,10 @@
       <c r="K17" s="65"/>
       <c r="L17" s="70"/>
     </row>
-    <row r="18" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="65"/>
+    <row r="18" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B18" s="66">
         <v>15</v>
       </c>
@@ -8112,8 +7913,10 @@
       <c r="K18" s="65"/>
       <c r="L18" s="70"/>
     </row>
-    <row r="19" spans="1:12" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
+    <row r="19" spans="1:12" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B19" s="66">
         <v>16</v>
       </c>
@@ -8127,19 +7930,21 @@
       <c r="F19" s="68" t="s">
         <v>139</v>
       </c>
-      <c r="G19" s="113" t="s">
+      <c r="G19" s="74" t="s">
         <v>82</v>
       </c>
       <c r="H19" s="65"/>
-      <c r="I19" s="114" t="s">
+      <c r="I19" s="75" t="s">
         <v>34</v>
       </c>
       <c r="J19" s="70"/>
       <c r="K19" s="65"/>
       <c r="L19" s="70"/>
     </row>
-    <row r="20" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
+    <row r="20" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B20" s="66">
         <v>17</v>
       </c>
@@ -8153,19 +7958,21 @@
       <c r="F20" s="68" t="s">
         <v>140</v>
       </c>
-      <c r="G20" s="113" t="s">
+      <c r="G20" s="74" t="s">
         <v>83</v>
       </c>
       <c r="H20" s="65"/>
-      <c r="I20" s="114" t="s">
+      <c r="I20" s="75" t="s">
         <v>34</v>
       </c>
       <c r="J20" s="70"/>
       <c r="K20" s="65"/>
       <c r="L20" s="70"/>
     </row>
-    <row r="21" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
+    <row r="21" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B21" s="66">
         <v>18</v>
       </c>
@@ -8179,19 +7986,21 @@
       <c r="F21" s="68" t="s">
         <v>147</v>
       </c>
-      <c r="G21" s="113" t="s">
+      <c r="G21" s="74" t="s">
         <v>82</v>
       </c>
       <c r="H21" s="65"/>
-      <c r="I21" s="114" t="s">
+      <c r="I21" s="75" t="s">
         <v>34</v>
       </c>
       <c r="J21" s="70"/>
       <c r="K21" s="65"/>
       <c r="L21" s="70"/>
     </row>
-    <row r="22" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
+    <row r="22" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B22" s="66">
         <v>19</v>
       </c>
@@ -8205,19 +8014,21 @@
       <c r="F22" s="68" t="s">
         <v>150</v>
       </c>
-      <c r="G22" s="113" t="s">
+      <c r="G22" s="74" t="s">
         <v>83</v>
       </c>
       <c r="H22" s="65"/>
-      <c r="I22" s="114" t="s">
+      <c r="I22" s="75" t="s">
         <v>34</v>
       </c>
       <c r="J22" s="70"/>
       <c r="K22" s="65"/>
       <c r="L22" s="70"/>
     </row>
-    <row r="23" spans="1:12" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
+    <row r="23" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B23" s="66">
         <v>20</v>
       </c>
@@ -8231,19 +8042,21 @@
       <c r="F23" s="68" t="s">
         <v>148</v>
       </c>
-      <c r="G23" s="113" t="s">
+      <c r="G23" s="74" t="s">
         <v>82</v>
       </c>
       <c r="H23" s="65"/>
-      <c r="I23" s="114" t="s">
+      <c r="I23" s="75" t="s">
         <v>34</v>
       </c>
       <c r="J23" s="70"/>
       <c r="K23" s="65"/>
       <c r="L23" s="70"/>
     </row>
-    <row r="24" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
+    <row r="24" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B24" s="66">
         <v>21</v>
       </c>
@@ -8257,18 +8070,18 @@
       <c r="F24" s="68" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="113" t="s">
+      <c r="G24" s="74" t="s">
         <v>83</v>
       </c>
       <c r="H24" s="65"/>
-      <c r="I24" s="114" t="s">
+      <c r="I24" s="75" t="s">
         <v>34</v>
       </c>
       <c r="J24" s="70"/>
       <c r="K24" s="65"/>
       <c r="L24" s="70"/>
     </row>
-    <row r="25" spans="1:12" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A25" s="65" t="s">
         <v>108</v>
       </c>
@@ -8296,7 +8109,7 @@
       <c r="K25" s="65"/>
       <c r="L25" s="70"/>
     </row>
-    <row r="26" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A26" s="65" t="s">
         <v>108</v>
       </c>
@@ -8324,7 +8137,7 @@
       <c r="K26" s="65"/>
       <c r="L26" s="70"/>
     </row>
-    <row r="27" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A27" s="65" t="s">
         <v>108</v>
       </c>
@@ -8352,7 +8165,7 @@
       <c r="K27" s="65"/>
       <c r="L27" s="70"/>
     </row>
-    <row r="28" spans="1:12" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:12" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A28" s="65" t="s">
         <v>108</v>
       </c>
@@ -8380,7 +8193,7 @@
       <c r="K28" s="65"/>
       <c r="L28" s="70"/>
     </row>
-    <row r="29" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="65" t="s">
         <v>108</v>
       </c>
@@ -8408,7 +8221,7 @@
       <c r="K29" s="65"/>
       <c r="L29" s="70"/>
     </row>
-    <row r="30" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A30" s="65" t="s">
         <v>108</v>
       </c>
@@ -8436,8 +8249,10 @@
       <c r="K30" s="65"/>
       <c r="L30" s="70"/>
     </row>
-    <row r="31" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A31" s="65"/>
+    <row r="31" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A31" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B31" s="66">
         <v>28</v>
       </c>
@@ -8462,8 +8277,10 @@
       <c r="K31" s="65"/>
       <c r="L31" s="70"/>
     </row>
-    <row r="32" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
+    <row r="32" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A32" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B32" s="66">
         <v>29</v>
       </c>
@@ -8488,8 +8305,10 @@
       <c r="K32" s="65"/>
       <c r="L32" s="70"/>
     </row>
-    <row r="33" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
+    <row r="33" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A33" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B33" s="66">
         <v>30</v>
       </c>
@@ -8503,19 +8322,21 @@
       <c r="F33" s="68" t="s">
         <v>141</v>
       </c>
-      <c r="G33" s="113" t="s">
+      <c r="G33" s="74" t="s">
         <v>82</v>
       </c>
       <c r="H33" s="65"/>
-      <c r="I33" s="114" t="s">
+      <c r="I33" s="75" t="s">
         <v>34</v>
       </c>
       <c r="J33" s="70"/>
       <c r="K33" s="65"/>
       <c r="L33" s="70"/>
     </row>
-    <row r="34" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
+    <row r="34" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A34" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B34" s="66">
         <v>31</v>
       </c>
@@ -8529,18 +8350,18 @@
       <c r="F34" s="68" t="s">
         <v>142</v>
       </c>
-      <c r="G34" s="113" t="s">
+      <c r="G34" s="74" t="s">
         <v>83</v>
       </c>
       <c r="H34" s="65"/>
-      <c r="I34" s="114" t="s">
+      <c r="I34" s="75" t="s">
         <v>34</v>
       </c>
       <c r="J34" s="70"/>
       <c r="K34" s="65"/>
       <c r="L34" s="70"/>
     </row>
-    <row r="35" spans="1:12" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:12" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A35" s="65" t="s">
         <v>108</v>
       </c>
@@ -8568,7 +8389,7 @@
       <c r="K35" s="65"/>
       <c r="L35" s="70"/>
     </row>
-    <row r="36" spans="1:12" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:12" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A36" s="65" t="s">
         <v>108</v>
       </c>
@@ -8596,7 +8417,7 @@
       <c r="K36" s="65"/>
       <c r="L36" s="70"/>
     </row>
-    <row r="37" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A37" s="65" t="s">
         <v>108</v>
       </c>
@@ -8624,7 +8445,7 @@
       <c r="K37" s="65"/>
       <c r="L37" s="70"/>
     </row>
-    <row r="38" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A38" s="65" t="s">
         <v>108</v>
       </c>
@@ -8652,7 +8473,7 @@
       <c r="K38" s="65"/>
       <c r="L38" s="70"/>
     </row>
-    <row r="39" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A39" s="65" t="s">
         <v>108</v>
       </c>
@@ -8680,7 +8501,7 @@
       <c r="K39" s="65"/>
       <c r="L39" s="70"/>
     </row>
-    <row r="40" spans="1:12" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A40" s="65" t="s">
         <v>108</v>
       </c>
@@ -8708,7 +8529,7 @@
       <c r="K40" s="65"/>
       <c r="L40" s="70"/>
     </row>
-    <row r="41" spans="1:12" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:12" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A41" s="65" t="s">
         <v>108</v>
       </c>
@@ -8736,8 +8557,10 @@
       <c r="K41" s="65"/>
       <c r="L41" s="70"/>
     </row>
-    <row r="42" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
+    <row r="42" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A42" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B42" s="66">
         <v>39</v>
       </c>
@@ -8762,8 +8585,10 @@
       <c r="K42" s="65"/>
       <c r="L42" s="70"/>
     </row>
-    <row r="43" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
+    <row r="43" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A43" s="65" t="s">
+        <v>108</v>
+      </c>
       <c r="B43" s="66">
         <v>40</v>
       </c>
@@ -8788,7 +8613,7 @@
       <c r="K43" s="65"/>
       <c r="L43" s="70"/>
     </row>
-    <row r="44" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A44" s="65" t="s">
         <v>108</v>
       </c>
@@ -8816,7 +8641,7 @@
       <c r="K44" s="65"/>
       <c r="L44" s="70"/>
     </row>
-    <row r="45" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A45" s="65" t="s">
         <v>108</v>
       </c>
@@ -8844,7 +8669,7 @@
       <c r="K45" s="65"/>
       <c r="L45" s="70"/>
     </row>
-    <row r="46" spans="1:12" s="71" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:12" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A46" s="65" t="s">
         <v>108</v>
       </c>
@@ -8872,7 +8697,7 @@
       <c r="K46" s="65"/>
       <c r="L46" s="70"/>
     </row>
-    <row r="47" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A47" s="65" t="s">
         <v>108</v>
       </c>
@@ -8900,7 +8725,7 @@
       <c r="K47" s="65"/>
       <c r="L47" s="70"/>
     </row>
-    <row r="48" spans="1:12" s="71" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:12" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A48" s="65" t="s">
         <v>108</v>
       </c>
@@ -8928,7 +8753,7 @@
       <c r="K48" s="65"/>
       <c r="L48" s="70"/>
     </row>
-    <row r="49" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A49" s="65" t="s">
         <v>108</v>
       </c>
@@ -8956,7 +8781,7 @@
       <c r="K49" s="65"/>
       <c r="L49" s="70"/>
     </row>
-    <row r="50" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A50" s="65" t="s">
         <v>108</v>
       </c>
@@ -8984,7 +8809,7 @@
       <c r="K50" s="65"/>
       <c r="L50" s="70"/>
     </row>
-    <row r="51" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A51" s="65" t="s">
         <v>108</v>
       </c>
@@ -9012,7 +8837,7 @@
       <c r="K51" s="65"/>
       <c r="L51" s="70"/>
     </row>
-    <row r="52" spans="1:12" s="71" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:12" s="71" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
       <c r="A52" s="65" t="s">
         <v>108</v>
       </c>
@@ -9040,7 +8865,7 @@
       <c r="K52" s="65"/>
       <c r="L52" s="70"/>
     </row>
-    <row r="53" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A53" s="65" t="s">
         <v>108</v>
       </c>
@@ -9068,7 +8893,7 @@
       <c r="K53" s="65"/>
       <c r="L53" s="70"/>
     </row>
-    <row r="54" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A54" s="65" t="s">
         <v>108</v>
       </c>
@@ -9096,7 +8921,7 @@
       <c r="K54" s="65"/>
       <c r="L54" s="70"/>
     </row>
-    <row r="55" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A55" s="65" t="s">
         <v>108</v>
       </c>
@@ -9124,7 +8949,7 @@
       <c r="K55" s="65"/>
       <c r="L55" s="70"/>
     </row>
-    <row r="56" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A56" s="65" t="s">
         <v>108</v>
       </c>
@@ -9152,7 +8977,7 @@
       <c r="K56" s="65"/>
       <c r="L56" s="70"/>
     </row>
-    <row r="57" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A57" s="65" t="s">
         <v>108</v>
       </c>
@@ -9180,7 +9005,7 @@
       <c r="K57" s="65"/>
       <c r="L57" s="70"/>
     </row>
-    <row r="58" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A58" s="65" t="s">
         <v>108</v>
       </c>
@@ -9208,7 +9033,7 @@
       <c r="K58" s="65"/>
       <c r="L58" s="70"/>
     </row>
-    <row r="59" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A59" s="65" t="s">
         <v>108</v>
       </c>
@@ -9236,7 +9061,7 @@
       <c r="K59" s="65"/>
       <c r="L59" s="70"/>
     </row>
-    <row r="60" spans="1:12" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:12" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A60" s="65" t="s">
         <v>108</v>
       </c>
@@ -9264,7 +9089,7 @@
       <c r="K60" s="65"/>
       <c r="L60" s="70"/>
     </row>
-    <row r="61" spans="1:12" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:12" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A61" s="65" t="s">
         <v>108</v>
       </c>
@@ -9292,7 +9117,7 @@
       <c r="K61" s="65"/>
       <c r="L61" s="70"/>
     </row>
-    <row r="62" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A62" s="65" t="s">
         <v>108</v>
       </c>
@@ -9320,7 +9145,7 @@
       <c r="K62" s="65"/>
       <c r="L62" s="70"/>
     </row>
-    <row r="63" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A63" s="65" t="s">
         <v>108</v>
       </c>
@@ -9348,7 +9173,7 @@
       <c r="K63" s="65"/>
       <c r="L63" s="70"/>
     </row>
-    <row r="64" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A64" s="65" t="s">
         <v>108</v>
       </c>
@@ -9376,7 +9201,7 @@
       <c r="K64" s="65"/>
       <c r="L64" s="70"/>
     </row>
-    <row r="65" spans="1:12" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:12" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A65" s="65" t="s">
         <v>108</v>
       </c>
@@ -9404,7 +9229,7 @@
       <c r="K65" s="65"/>
       <c r="L65" s="70"/>
     </row>
-    <row r="66" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A66" s="65" t="s">
         <v>108</v>
       </c>
@@ -9432,7 +9257,7 @@
       <c r="K66" s="65"/>
       <c r="L66" s="70"/>
     </row>
-    <row r="67" spans="1:12" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:12" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A67" s="65" t="s">
         <v>108</v>
       </c>
@@ -9460,7 +9285,7 @@
       <c r="K67" s="65"/>
       <c r="L67" s="70"/>
     </row>
-    <row r="68" spans="1:12" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:12" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A68" s="65" t="s">
         <v>108</v>
       </c>
@@ -9488,7 +9313,7 @@
       <c r="K68" s="65"/>
       <c r="L68" s="70"/>
     </row>
-    <row r="69" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A69" s="65" t="s">
         <v>108</v>
       </c>
@@ -9516,7 +9341,7 @@
       <c r="K69" s="65"/>
       <c r="L69" s="70"/>
     </row>
-    <row r="70" spans="1:12" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:12" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A70" s="65" t="s">
         <v>108</v>
       </c>
@@ -9544,7 +9369,7 @@
       <c r="K70" s="65"/>
       <c r="L70" s="70"/>
     </row>
-    <row r="71" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A71" s="65" t="s">
         <v>108</v>
       </c>
@@ -9572,7 +9397,7 @@
       <c r="K71" s="65"/>
       <c r="L71" s="70"/>
     </row>
-    <row r="72" spans="1:12" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:12" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A72" s="65" t="s">
         <v>108</v>
       </c>
@@ -9600,7 +9425,7 @@
       <c r="K72" s="65"/>
       <c r="L72" s="70"/>
     </row>
-    <row r="73" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A73" s="65" t="s">
         <v>108</v>
       </c>
@@ -9628,7 +9453,7 @@
       <c r="K73" s="65"/>
       <c r="L73" s="70"/>
     </row>
-    <row r="74" spans="1:12" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:12" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A74" s="65" t="s">
         <v>108</v>
       </c>
@@ -9656,7 +9481,7 @@
       <c r="K74" s="65"/>
       <c r="L74" s="70"/>
     </row>
-    <row r="75" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A75" s="65" t="s">
         <v>108</v>
       </c>
@@ -9684,7 +9509,7 @@
       <c r="K75" s="65"/>
       <c r="L75" s="70"/>
     </row>
-    <row r="76" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A76" s="65" t="s">
         <v>108</v>
       </c>
@@ -9712,7 +9537,7 @@
       <c r="K76" s="65"/>
       <c r="L76" s="70"/>
     </row>
-    <row r="77" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A77" s="65" t="s">
         <v>108</v>
       </c>
@@ -9740,7 +9565,7 @@
       <c r="K77" s="65"/>
       <c r="L77" s="70"/>
     </row>
-    <row r="78" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A78" s="65" t="s">
         <v>108</v>
       </c>
@@ -9768,7 +9593,7 @@
       <c r="K78" s="65"/>
       <c r="L78" s="70"/>
     </row>
-    <row r="79" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A79" s="65" t="s">
         <v>108</v>
       </c>
@@ -9796,7 +9621,7 @@
       <c r="K79" s="65"/>
       <c r="L79" s="70"/>
     </row>
-    <row r="80" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A80" s="65" t="s">
         <v>108</v>
       </c>
@@ -9824,7 +9649,7 @@
       <c r="K80" s="65"/>
       <c r="L80" s="70"/>
     </row>
-    <row r="81" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A81" s="65" t="s">
         <v>108</v>
       </c>
@@ -9852,7 +9677,7 @@
       <c r="K81" s="65"/>
       <c r="L81" s="70"/>
     </row>
-    <row r="82" spans="1:12" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:12" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A82" s="65" t="s">
         <v>108</v>
       </c>
@@ -9880,7 +9705,7 @@
       <c r="K82" s="65"/>
       <c r="L82" s="70"/>
     </row>
-    <row r="83" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A83" s="65" t="s">
         <v>108</v>
       </c>
@@ -9908,7 +9733,7 @@
       <c r="K83" s="65"/>
       <c r="L83" s="70"/>
     </row>
-    <row r="84" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A84" s="65" t="s">
         <v>108</v>
       </c>
@@ -9936,7 +9761,7 @@
       <c r="K84" s="65"/>
       <c r="L84" s="70"/>
     </row>
-    <row r="85" spans="1:12" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:12" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A85" s="65" t="s">
         <v>108</v>
       </c>
@@ -9964,7 +9789,7 @@
       <c r="K85" s="65"/>
       <c r="L85" s="70"/>
     </row>
-    <row r="86" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A86" s="65" t="s">
         <v>108</v>
       </c>
@@ -9992,7 +9817,7 @@
       <c r="K86" s="65"/>
       <c r="L86" s="70"/>
     </row>
-    <row r="87" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A87" s="65" t="s">
         <v>108</v>
       </c>
@@ -10020,7 +9845,7 @@
       <c r="K87" s="65"/>
       <c r="L87" s="70"/>
     </row>
-    <row r="88" spans="1:12" s="71" customFormat="1" ht="51" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:12" s="71" customFormat="1" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A88" s="65" t="s">
         <v>108</v>
       </c>
@@ -10048,7 +9873,7 @@
       <c r="K88" s="65"/>
       <c r="L88" s="70"/>
     </row>
-    <row r="89" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A89" s="65" t="s">
         <v>108</v>
       </c>
@@ -10076,7 +9901,7 @@
       <c r="K89" s="65"/>
       <c r="L89" s="70"/>
     </row>
-    <row r="90" spans="1:12" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:12" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A90" s="65" t="s">
         <v>108</v>
       </c>
@@ -10106,7 +9931,7 @@
       <c r="K90" s="65"/>
       <c r="L90" s="70"/>
     </row>
-    <row r="91" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A91" s="65" t="s">
         <v>108</v>
       </c>
@@ -10134,7 +9959,7 @@
       <c r="K91" s="65"/>
       <c r="L91" s="70"/>
     </row>
-    <row r="92" spans="1:12" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:12" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A92" s="65" t="s">
         <v>108</v>
       </c>
@@ -10164,7 +9989,7 @@
       <c r="K92" s="65"/>
       <c r="L92" s="70"/>
     </row>
-    <row r="93" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A93" s="65" t="s">
         <v>108</v>
       </c>
@@ -10192,7 +10017,7 @@
       <c r="K93" s="65"/>
       <c r="L93" s="70"/>
     </row>
-    <row r="94" spans="1:12" s="71" customFormat="1" ht="63.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:12" s="71" customFormat="1" ht="66" x14ac:dyDescent="0.3">
       <c r="A94" s="65" t="s">
         <v>108</v>
       </c>
@@ -10222,7 +10047,7 @@
       <c r="K94" s="65"/>
       <c r="L94" s="70"/>
     </row>
-    <row r="95" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A95" s="65" t="s">
         <v>108</v>
       </c>
@@ -10250,7 +10075,7 @@
       <c r="K95" s="65"/>
       <c r="L95" s="70"/>
     </row>
-    <row r="96" spans="1:12" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:12" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A96" s="65" t="s">
         <v>108</v>
       </c>
@@ -10280,7 +10105,7 @@
       <c r="K96" s="65"/>
       <c r="L96" s="70"/>
     </row>
-    <row r="97" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A97" s="65" t="s">
         <v>108</v>
       </c>
@@ -10308,7 +10133,7 @@
       <c r="K97" s="65"/>
       <c r="L97" s="70"/>
     </row>
-    <row r="98" spans="1:12" s="71" customFormat="1" ht="76.5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:12" s="71" customFormat="1" ht="79.2" x14ac:dyDescent="0.3">
       <c r="A98" s="65" t="s">
         <v>108</v>
       </c>
@@ -10338,7 +10163,7 @@
       <c r="K98" s="65"/>
       <c r="L98" s="70"/>
     </row>
-    <row r="99" spans="1:12" s="71" customFormat="1" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:12" s="71" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A99" s="65" t="s">
         <v>108</v>
       </c>
@@ -10366,7 +10191,7 @@
       <c r="K99" s="65"/>
       <c r="L99" s="70"/>
     </row>
-    <row r="100" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A100" s="65" t="s">
         <v>108</v>
       </c>
@@ -10392,7 +10217,7 @@
       <c r="K100" s="65"/>
       <c r="L100" s="70"/>
     </row>
-    <row r="101" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A101" s="65" t="s">
         <v>108</v>
       </c>
@@ -10418,7 +10243,7 @@
       <c r="K101" s="65"/>
       <c r="L101" s="70"/>
     </row>
-    <row r="102" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A102" s="65" t="s">
         <v>108</v>
       </c>
@@ -10446,7 +10271,7 @@
       <c r="K102" s="65"/>
       <c r="L102" s="70"/>
     </row>
-    <row r="103" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A103" s="65" t="s">
         <v>108</v>
       </c>
@@ -10472,7 +10297,7 @@
       <c r="K103" s="65"/>
       <c r="L103" s="70"/>
     </row>
-    <row r="104" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:12" s="71" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A104" s="65" t="s">
         <v>108</v>
       </c>
@@ -10497,6 +10322,235 @@
       <c r="J104" s="70"/>
       <c r="K104" s="65"/>
       <c r="L104" s="70"/>
+    </row>
+    <row r="105" spans="1:12" s="121" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A105" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="B105" s="116">
+        <v>102</v>
+      </c>
+      <c r="C105" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D105" s="115"/>
+      <c r="E105" s="117" t="s">
+        <v>177</v>
+      </c>
+      <c r="F105" s="118" t="s">
+        <v>176</v>
+      </c>
+      <c r="G105" s="119" t="s">
+        <v>181</v>
+      </c>
+      <c r="H105" s="115"/>
+      <c r="I105" s="115"/>
+      <c r="J105" s="120"/>
+      <c r="K105" s="115"/>
+      <c r="L105" s="120"/>
+    </row>
+    <row r="106" spans="1:12" s="121" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="116">
+        <f>1+B105</f>
+        <v>103</v>
+      </c>
+      <c r="C106" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D106" s="115"/>
+      <c r="E106" s="117" t="s">
+        <v>178</v>
+      </c>
+      <c r="F106" s="118" t="s">
+        <v>179</v>
+      </c>
+      <c r="G106" s="119" t="s">
+        <v>180</v>
+      </c>
+      <c r="H106" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="I106" s="115"/>
+      <c r="J106" s="120"/>
+      <c r="K106" s="115"/>
+      <c r="L106" s="120"/>
+    </row>
+    <row r="107" spans="1:12" s="121" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="116">
+        <f t="shared" ref="B107:B111" si="0">1+B106</f>
+        <v>104</v>
+      </c>
+      <c r="C107" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D107" s="115"/>
+      <c r="E107" s="117" t="s">
+        <v>183</v>
+      </c>
+      <c r="F107" s="118" t="s">
+        <v>184</v>
+      </c>
+      <c r="G107" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="H107" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="I107" s="115"/>
+      <c r="J107" s="120"/>
+      <c r="K107" s="115"/>
+      <c r="L107" s="120"/>
+    </row>
+    <row r="108" spans="1:12" s="121" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A108" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="B108" s="116">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="C108" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D108" s="115"/>
+      <c r="E108" s="117" t="s">
+        <v>183</v>
+      </c>
+      <c r="F108" s="118" t="s">
+        <v>185</v>
+      </c>
+      <c r="G108" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="H108" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="I108" s="115"/>
+      <c r="J108" s="120"/>
+      <c r="K108" s="115"/>
+      <c r="L108" s="120"/>
+    </row>
+    <row r="109" spans="1:12" s="121" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A109" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="B109" s="116">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="C109" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D109" s="115"/>
+      <c r="E109" s="117" t="s">
+        <v>183</v>
+      </c>
+      <c r="F109" s="118" t="s">
+        <v>186</v>
+      </c>
+      <c r="G109" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="H109" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="I109" s="115"/>
+      <c r="J109" s="120"/>
+      <c r="K109" s="115"/>
+      <c r="L109" s="120"/>
+    </row>
+    <row r="110" spans="1:12" s="121" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A110" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="B110" s="116">
+        <f t="shared" si="0"/>
+        <v>107</v>
+      </c>
+      <c r="C110" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D110" s="115"/>
+      <c r="E110" s="117" t="s">
+        <v>183</v>
+      </c>
+      <c r="F110" s="118" t="s">
+        <v>187</v>
+      </c>
+      <c r="G110" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="H110" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="I110" s="115"/>
+      <c r="J110" s="120"/>
+      <c r="K110" s="115"/>
+      <c r="L110" s="120"/>
+    </row>
+    <row r="111" spans="1:12" s="121" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A111" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="B111" s="116">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="C111" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D111" s="115"/>
+      <c r="E111" s="117" t="s">
+        <v>183</v>
+      </c>
+      <c r="F111" s="118" t="s">
+        <v>188</v>
+      </c>
+      <c r="G111" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="H111" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="I111" s="115"/>
+      <c r="J111" s="120"/>
+      <c r="K111" s="115"/>
+      <c r="L111" s="120"/>
+    </row>
+    <row r="112" spans="1:12" s="121" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A112" s="115" t="s">
+        <v>108</v>
+      </c>
+      <c r="B112" s="116">
+        <f t="shared" ref="B112" si="1">1+B111</f>
+        <v>109</v>
+      </c>
+      <c r="C112" s="115" t="s">
+        <v>109</v>
+      </c>
+      <c r="D112" s="115"/>
+      <c r="E112" s="117" t="s">
+        <v>183</v>
+      </c>
+      <c r="F112" s="118" t="s">
+        <v>189</v>
+      </c>
+      <c r="G112" s="119" t="s">
+        <v>190</v>
+      </c>
+      <c r="H112" s="115" t="s">
+        <v>182</v>
+      </c>
+      <c r="I112" s="115"/>
+      <c r="J112" s="120"/>
+      <c r="K112" s="115"/>
+      <c r="L112" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10533,64 +10587,64 @@
       <selection sqref="A1:O15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="13" customWidth="1"/>
-    <col min="2" max="2" width="18.42578125" style="13" customWidth="1"/>
-    <col min="3" max="3" width="10" style="13" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" style="13" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" style="13" customWidth="1"/>
-    <col min="6" max="6" width="1.42578125" style="14" customWidth="1"/>
-    <col min="7" max="7" width="7.42578125" style="13" customWidth="1"/>
-    <col min="8" max="8" width="15.42578125" style="13" customWidth="1"/>
-    <col min="9" max="9" width="10" style="13" customWidth="1"/>
-    <col min="10" max="10" width="14.5703125" style="13" customWidth="1"/>
-    <col min="11" max="11" width="3.28515625" style="13" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" style="13" customWidth="1"/>
-    <col min="13" max="13" width="10" style="13" customWidth="1"/>
-    <col min="14" max="14" width="11.42578125" style="13" customWidth="1"/>
-    <col min="15" max="15" width="6.28515625" style="13" customWidth="1"/>
-    <col min="16" max="16" width="18.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="1" width="8.6640625" style="13" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="9.5546875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="7.109375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="1.44140625" style="14" customWidth="1"/>
+    <col min="7" max="7" width="7.44140625" style="13" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" style="13" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="14.5546875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="3.33203125" style="13" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" style="13" customWidth="1"/>
+    <col min="13" max="13" width="9.5546875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="11.44140625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="6.33203125" style="13" customWidth="1"/>
+    <col min="16" max="16" width="18.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.109375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="104" t="s">
+    <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="105"/>
-      <c r="C1" s="105"/>
-      <c r="D1" s="105"/>
-      <c r="E1" s="106"/>
-      <c r="G1" s="104" t="s">
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="108"/>
+      <c r="G1" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="105"/>
-      <c r="I1" s="105"/>
-      <c r="J1" s="105"/>
-      <c r="K1" s="105"/>
-      <c r="L1" s="105"/>
-      <c r="M1" s="105"/>
-      <c r="N1" s="105"/>
-      <c r="O1" s="106"/>
-    </row>
-    <row r="2" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="107"/>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="109"/>
-      <c r="G2" s="107"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="109"/>
-    </row>
-    <row r="3" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
+      <c r="N1" s="107"/>
+      <c r="O1" s="108"/>
+    </row>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="109"/>
+      <c r="B2" s="110"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="110"/>
+      <c r="E2" s="111"/>
+      <c r="G2" s="109"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="110"/>
+      <c r="K2" s="110"/>
+      <c r="L2" s="110"/>
+      <c r="M2" s="110"/>
+      <c r="N2" s="110"/>
+      <c r="O2" s="111"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
       <c r="B3" s="31"/>
       <c r="C3" s="31"/>
@@ -10606,7 +10660,7 @@
       <c r="N3" s="16"/>
       <c r="O3" s="18"/>
     </row>
-    <row r="4" spans="1:15" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="20"/>
       <c r="B4" s="17"/>
       <c r="C4" s="17"/>
@@ -10628,18 +10682,18 @@
       <c r="N4" s="16"/>
       <c r="O4" s="18"/>
     </row>
-    <row r="5" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
-      <c r="B5" s="98" t="s">
+      <c r="B5" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="102"/>
       <c r="E5" s="18"/>
       <c r="G5" s="20"/>
       <c r="H5" s="47">
         <f>GETPIVOTDATA("ID",$B$7)</f>
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="I5" s="48">
         <f>COUNTIF('Lista dei casi di test'!L:L,"Coerente")+COUNTIF('Lista dei casi di test'!L:L,"Non coerente")</f>
@@ -10647,7 +10701,7 @@
       </c>
       <c r="J5" s="61">
         <f>I5/H5</f>
-        <v>3.7735849056603772E-2</v>
+        <v>4.1237113402061855E-2</v>
       </c>
       <c r="K5" s="24"/>
       <c r="L5" s="24"/>
@@ -10655,11 +10709,11 @@
       <c r="N5" s="16"/>
       <c r="O5" s="18"/>
     </row>
-    <row r="6" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
-      <c r="B6" s="101"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
+      <c r="B6" s="103"/>
+      <c r="C6" s="104"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="18"/>
       <c r="G6" s="20"/>
       <c r="H6" s="42"/>
@@ -10671,7 +10725,7 @@
       <c r="N6" s="16"/>
       <c r="O6" s="18"/>
     </row>
-    <row r="7" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20"/>
       <c r="B7" s="49" t="s">
         <v>44</v>
@@ -10693,7 +10747,7 @@
       <c r="N7" s="16"/>
       <c r="O7" s="18"/>
     </row>
-    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="19"/>
       <c r="B8" s="50" t="s">
         <v>106</v>
@@ -10705,26 +10759,26 @@
       </c>
       <c r="E8" s="18"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="98" t="s">
+      <c r="H8" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="99"/>
-      <c r="J8" s="100"/>
+      <c r="I8" s="101"/>
+      <c r="J8" s="102"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="98" t="s">
+      <c r="L8" s="100" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="99"/>
-      <c r="N8" s="100"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="102"/>
       <c r="O8" s="18"/>
     </row>
-    <row r="9" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="33"/>
       <c r="B9" s="51" t="s">
         <v>51</v>
       </c>
       <c r="C9" s="38">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D9" s="29">
         <f>GETPIVOTDATA("ID",$B$7,"Stato test","Ok")/GETPIVOTDATA("ID",$B$7)</f>
@@ -10732,22 +10786,22 @@
       </c>
       <c r="E9" s="18"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="114"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="111"/>
-      <c r="N9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="113"/>
+      <c r="N9" s="114"/>
       <c r="O9" s="18"/>
     </row>
-    <row r="10" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="33"/>
       <c r="B10" s="52" t="s">
         <v>54</v>
       </c>
       <c r="C10" s="39">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D10" s="26"/>
       <c r="E10" s="18"/>
@@ -10773,7 +10827,7 @@
       </c>
       <c r="O10" s="18"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="33"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -10799,7 +10853,7 @@
       </c>
       <c r="O11" s="18"/>
     </row>
-    <row r="12" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="33"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -10827,7 +10881,7 @@
       </c>
       <c r="O12" s="18"/>
     </row>
-    <row r="13" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="33"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -10852,7 +10906,7 @@
       <c r="N13" s="26"/>
       <c r="O13" s="18"/>
     </row>
-    <row r="14" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="20"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -10870,7 +10924,7 @@
       <c r="N14" s="17"/>
       <c r="O14" s="18"/>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="25"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -10886,7 +10940,7 @@
       <c r="N15" s="21"/>
       <c r="O15" s="23"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16"/>
       <c r="B16"/>
       <c r="C16"/>
@@ -10897,7 +10951,7 @@
       <c r="M16"/>
       <c r="N16"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17"/>
       <c r="B17"/>
       <c r="C17"/>
@@ -10908,7 +10962,7 @@
       <c r="M17"/>
       <c r="N17"/>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18"/>
       <c r="B18"/>
       <c r="C18"/>
@@ -10919,7 +10973,7 @@
       <c r="M18"/>
       <c r="N18"/>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19"/>
       <c r="C19"/>
@@ -10930,7 +10984,7 @@
       <c r="M19"/>
       <c r="N19"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20"/>
       <c r="B20"/>
       <c r="C20"/>
@@ -10941,7 +10995,7 @@
       <c r="M20"/>
       <c r="N20"/>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21"/>
       <c r="B21"/>
       <c r="C21"/>
@@ -10952,7 +11006,7 @@
       <c r="M21"/>
       <c r="N21"/>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22"/>
       <c r="B22"/>
       <c r="C22"/>
@@ -10963,7 +11017,7 @@
       <c r="M22"/>
       <c r="N22"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23"/>
       <c r="B23"/>
       <c r="C23"/>
@@ -10976,7 +11030,7 @@
       <c r="M23"/>
       <c r="N23"/>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24"/>
       <c r="B24"/>
       <c r="C24"/>
@@ -10989,7 +11043,7 @@
       <c r="M24"/>
       <c r="N24"/>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25"/>
       <c r="B25"/>
       <c r="C25"/>
@@ -11002,7 +11056,7 @@
       <c r="M25"/>
       <c r="N25"/>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G26"/>
       <c r="H26"/>
       <c r="I26"/>
@@ -11011,7 +11065,7 @@
       <c r="L26"/>
       <c r="M26"/>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G27"/>
       <c r="H27"/>
       <c r="I27"/>
@@ -11020,7 +11074,7 @@
       <c r="L27"/>
       <c r="M27"/>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G28"/>
       <c r="H28"/>
       <c r="I28"/>
@@ -11029,7 +11083,7 @@
       <c r="L28"/>
       <c r="M28"/>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G29"/>
       <c r="H29"/>
       <c r="I29"/>
@@ -11038,7 +11092,7 @@
       <c r="L29"/>
       <c r="M29"/>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G30"/>
       <c r="H30"/>
       <c r="I30"/>
@@ -11047,7 +11101,7 @@
       <c r="L30"/>
       <c r="M30"/>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G31"/>
       <c r="H31"/>
       <c r="I31"/>
@@ -11056,7 +11110,7 @@
       <c r="L31"/>
       <c r="M31"/>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="G32"/>
       <c r="H32"/>
       <c r="I32"/>
@@ -11065,7 +11119,7 @@
       <c r="L32"/>
       <c r="M32"/>
     </row>
-    <row r="33" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G33"/>
       <c r="H33"/>
       <c r="I33"/>
@@ -11074,7 +11128,7 @@
       <c r="L33"/>
       <c r="M33"/>
     </row>
-    <row r="34" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G34"/>
       <c r="H34"/>
       <c r="I34"/>
@@ -11083,7 +11137,7 @@
       <c r="L34"/>
       <c r="M34"/>
     </row>
-    <row r="35" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="7:13" x14ac:dyDescent="0.3">
       <c r="G35"/>
       <c r="H35"/>
       <c r="I35"/>
@@ -11092,14 +11146,14 @@
       <c r="L35"/>
       <c r="M35"/>
     </row>
-    <row r="36" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="7:13" x14ac:dyDescent="0.3">
       <c r="H36"/>
       <c r="I36"/>
       <c r="J36"/>
       <c r="L36"/>
       <c r="M36"/>
     </row>
-    <row r="37" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="7:13" x14ac:dyDescent="0.3">
       <c r="H37"/>
       <c r="I37"/>
       <c r="J37"/>
@@ -11125,6 +11179,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -11238,22 +11307,30 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5EE125-43E6-46CF-BE7E-DF899F9AE08F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4302E80F-5264-4B4D-ABB5-B564D1D5A2D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11267,27 +11344,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5EE125-43E6-46CF-BE7E-DF899F9AE08F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/earlywarning-pom/earlywarning-config/src/baf-configuration/test/Unit Test_Rapporto avanzamento test ALEX_SVIL.xlsx
+++ b/earlywarning-pom/earlywarning-config/src/baf-configuration/test/Unit Test_Rapporto avanzamento test ALEX_SVIL.xlsx
@@ -22,7 +22,7 @@
   </definedNames>
   <calcPr calcId="171027"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="4" r:id="rId4"/>
     <pivotCache cacheId="8" r:id="rId5"/>
   </pivotCaches>
 </workbook>
@@ -687,9 +687,6 @@
     <t>BR15</t>
   </si>
   <si>
-    <t>Days Past Due &gt; 30 Equals TRUE</t>
-  </si>
-  <si>
     <t>accensione della BR15</t>
   </si>
   <si>
@@ -893,6 +890,9 @@
   </si>
   <si>
     <t>The number of cases reported is correct</t>
+  </si>
+  <si>
+    <t>Bond Trade Suspended Equals TRUE</t>
   </si>
 </sst>
 </file>
@@ -1709,24 +1709,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1753,6 +1762,22 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1820,31 +1845,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="19" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1852,8 +1852,169 @@
   </cellStyles>
   <dxfs count="102">
     <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="medium">
+          <color theme="3"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color theme="3"/>
+        </left>
+        <bottom style="medium">
+          <color theme="3"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
-        <color rgb="FFFF0000"/>
+        <color theme="4" tint="0.79998168889431442"/>
       </font>
     </dxf>
     <dxf>
@@ -2532,169 +2693,8 @@
       <alignment vertical="center" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <top style="medium">
-          <color theme="3"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="medium">
-          <color theme="3"/>
-        </left>
-        <bottom style="medium">
-          <color theme="3"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment vertical="center" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
-        <color theme="4" tint="0.79998168889431442"/>
+        <color rgb="FFFF0000"/>
       </font>
     </dxf>
   </dxfs>
@@ -2765,7 +2765,61 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Monaco, Fernando" refreshedDate="42773.504897685183" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="102">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Monaco, Fernando" refreshedDate="42779.433539814818" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="110">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
+  </cacheSource>
+  <cacheFields count="11">
+    <cacheField name="Applicazione" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="ID" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="109"/>
+    </cacheField>
+    <cacheField name="Funzioni oggetto del test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Moduli oggetto del test" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Nome del test" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Descrizione test" numFmtId="0">
+      <sharedItems containsBlank="1" longText="1"/>
+    </cacheField>
+    <cacheField name="Esito atteso" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Note fornitore" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Stato test" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="ok"/>
+        <m/>
+        <s v="Da eseguire" u="1"/>
+        <s v="ko" u="1"/>
+        <s v="In esecuzione" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Data consegna" numFmtId="14">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Verifica DSI" numFmtId="0">
+      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Monaco, Fernando" refreshedDate="42779.43354027778" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="110">
   <cacheSource type="worksheet">
     <worksheetSource ref="A3:L1048576" sheet="Lista dei casi di test"/>
   </cacheSource>
@@ -2774,7 +2828,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="101"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="109"/>
     </cacheField>
     <cacheField name="Funzioni oggetto del test" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -2825,62 +2879,1443 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshOnLoad="1" refreshedBy="Monaco, Fernando" refreshedDate="42773.504898611114" createdVersion="4" refreshedVersion="6" minRefreshableVersion="3" recordCount="102">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A3:K1048576" sheet="Lista dei casi di test"/>
-  </cacheSource>
-  <cacheFields count="11">
-    <cacheField name="Applicazione" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="ID" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="101"/>
-    </cacheField>
-    <cacheField name="Funzioni oggetto del test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Moduli oggetto del test" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Nome del test" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Descrizione test" numFmtId="0">
-      <sharedItems containsBlank="1" longText="1"/>
-    </cacheField>
-    <cacheField name="Esito atteso" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Note fornitore" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Stato test" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
-        <s v="ok"/>
-        <m/>
-        <s v="Da eseguire" u="1"/>
-        <s v="ko" u="1"/>
-        <s v="In esecuzione" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Data consegna" numFmtId="14">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Verifica DSI" numFmtId="0">
-      <sharedItems containsNonDate="0" containsString="0" containsBlank="1"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="110">
+  <r>
+    <s v="AAAP"/>
+    <n v="1"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 1 - Days past due: For each Client Homogeneous NDG, assign the count of the number of days past due at the report date "/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="2"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 1 - Days past due. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="3"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 2 - Past Due &gt; 90: For each Client Homogeneous NDG, the indicator is “true” (value 1) in presence of days past due &gt; 90 on any facility at the debtor level, 0 otherwise"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="4"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 2 - Past Due &gt; 90. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="5"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 6 - Credit lines revoked: For each Client Homogeneous NDG, the indicator is “true” (value 1) in presence of credit lines revoked, otherwise the field is null."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="6"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error or Indicator 6 - Credit lines revoked:  The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="7"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 7 - Overdue amount/exposure amount: For each Client Homogeneous NDG, the value associated to the indicator is the result of the Ratio between:_x000a_- Numerator: Overdue amount (the past due amount for cash loans for credit facilities: credit cards, overdraft, revolving and each loans without amortization schedule)_x000a_- Denominator: Exposure amount (the total on balance exposure on cash loans (credit facilities: credit cards, overdraft, revolving and each loans without amortization schedule)"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="8"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 7 - Overdue amount/exposure amount. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="9"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 8 - Account turnover oscillation: For each Client Homogeneous NDG, the indicator is the Ratio between the quaterly average and annual average of the sum of monthly inflows . The inflows are in current account."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="10"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 15: For each Client Homogeneous NDG, the indicator is “true” (value 1) in presence of overdraft limit average utilization &gt; 80% - 6 months. The overdraft limit is calculated at the last business day of the month."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="11"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 15:The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="12"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 16 - Default: For each Client Homogeneous NDG, the indicator is “true” (value 1) if the counterparty is classified as non performing, otherwise the field is null. Indicator is active if a client, in the moment of calculation of indicators, has a default longer than 5 days in the amount higher than 10.000 RSD (for SME and LC segments) and 1.000 RSD (for SB segment)."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="13"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 16 - Default. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="14"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 17: For each Client Homogeneous NDG, the indicator is “true” (value 1) if the counterparty is classified as defined as default according/article 178 of CRR, 0 otherwise"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="15"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 17 : The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="16"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 20 - Missing financial statements: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if client financial statements related to the previous closed financial year are missing, otherwise the field is null."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="17"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 20 - Missing financial statements. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="18"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 23: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) in presence of delinquency on contract/commitment, otherwise the field is null."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="19"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 23 : The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="20"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="indicator 28: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) in presence of change of main activity in the last 12 months, otherwise the field is null."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="21"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 28 : The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="22"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 31 - For each Client Homogeneous NDG, the value associated to the indicator is &quot;true&quot; (value 1) if (collateral expiry date - report date) &lt;= 90 days for collateral, otherwise the field is null. The indicator uses the minimal expiring date in case of more collaterals."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="23"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 31 - Past due amount. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="24"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 40 - Loan to value ratio: For each Client Homogeneous NDG, assign the value of the approved amount for loans/total value of collateral"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="25"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 40 - Loan to value ratio. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="26"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 44 - Past due amount: For each Client Homogeneous NDG, assign the amount past due at the report date"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="27"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 44 - Past due amount. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="28"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 45: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if client don't breach any credit line covenant, 0 otherwise"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="29"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 45: The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="30"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 51 - Overdraft: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) in presence of overdraft amount &gt; 0, 0 otherwise"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="31"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 51 - Overdraft. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="32"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 56 - Outstanding + overdue/Approved amount for loans: For each Client Homogeneous NDG, assign the value from ratio of:_x000a_Numerator: (Exposure on balance + overdue amount for loans)_x000a_Denominator: Approved amount for loans"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="33"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 56 - Outstanding + overdue/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="34"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 56 - Outstanding + overdue/Approved amount for loans. The conventional value (cut-off value) is assigned in cases of Indicator is out of cut-off limit"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="35"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 58 - Months with overdue: For each Client Homogeneous NDG, assign the Continuous number of months with overdue in the last quarter"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="36"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 58 - Months with overdue. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="37"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 65 -For each Client Homogeneous NDG, assign the value from ratio of:_x000a_Numerator: Total debt per interest due_x000a_Denominator: total debt per interest due older than 30 days"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="38"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 65 - Total debt/EBITDA. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="39"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 177 - For each Client Homogeneous NDG, assign the number of days of over limit overdraft for current accounts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="40"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 177 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="41"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 190 - For each Client Homogeneous NDG, assign the amount overdue for other contracts (no loans, no amortizing products)"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="42"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 190 - Amount of unpaid overdue - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="43"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 191 - For each Client Homogeneous NDG, assign the amount overdue for leasing contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="44"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 191 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="45"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 192 - For each Client Homogeneous NDG, assign the amount overdue for amortizing products"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="46"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 192 - Amount of unpaid overdue - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="47"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 193 - Amount of unpaid overdue - loans: For each Client Homogeneous NDG, assign the amount overdue for loans"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="48"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 193 - Amount of unpaid overdue - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="49"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 194 - For each Client Homogeneous NDG, assign the amount overdue for amortizing products"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="50"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 194 - Amount of unpaid instalments - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="51"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicaotr 195 - For each Client Homogeneous NDG, assign the amount of unpaid instalments for leasing contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="52"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 195 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="53"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 196 - For each Client Homogeneous NDG, assign the amount of unpaid instalments for amortizing products"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="54"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 196 - Amount of unpaid instalments - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="55"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 197 - Amount of unpaid instalments - loans: For each Client Homogeneous NDG, assign the amount of unpaid instalments for loans"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="56"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 197 - Amount of unpaid instalments - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="57"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 198 - For each Client Homogeneous NDG, assign the overdue amount for other contracts (no loans, no amortizing products)/Approved amount for other contracts (no loans, no amortizing products)"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="58"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 198 - Overdue amount/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="59"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicaor 199 - For each Client Homogeneous NDG, assign the overdue amount for leasing contracts/Approved amount for leasing contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="60"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 199 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="61"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 200 - For each Client Homogeneous NDG, assign the overdue amount for amortizing products/Approved amount for amortizing products"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="62"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 200 - Overdue amount/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="63"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 201 - Overdue amount/Approved amount for loans: For each Client Homogeneous NDG, assign the overdue amount for loans/Approved amount for loans"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="64"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 201 - Overdue amount/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="65"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 202 - For each Client Homogeneous NDG, assign the overdue amount for other contracts (no loans, no amortizing products)/Initial approved amount for other contracts (no loans, no amortizing products)"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="66"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 202 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="67"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 203 - For each Client Homogeneous NDG, assign the value from ratio:_x000a_Numerator: Overdue amount for leasing contracts_x000a_Denominator: Initial approved amount for leasing contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="68"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 203 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="69"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 204 - For each Client Homogeneous NDG, assign the value from ratio:_x000a_Numerator: Overdue amount for amortizing products_x000a_Denominator: Initial approved amount for amortizing products"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="70"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 204 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="71"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 205 - For each Client Homogeneous NDG, assign the value from ratio:_x000a_Numerator: Overdue amount_x000a_Denominator: Initial approved amount"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="72"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 205 -The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="73"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 206 - For each Client Homogeneous NDG, assign the number of unpaid instalments for other contracts (no amortizing products, no leasing)"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="74"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 206  cases: _x000a_Indicator is missing -&gt; 0_x000a_indicator &lt; 0 -&gt; 0"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="75"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 207 - For each Client Homogeneous NDG, assign the number od unpaid instalments for leasing contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="76"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error Indicator 207 -The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="77"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 208 - For each Client Homogeneous NDG, assign the number od unpaid instalments for amortizing products"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="78"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 208 cases: _x000a_Indicator is missing -&gt; 0_x000a_indicator &lt; 0 -&gt; 0"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="79"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 209 - For each Client Homogeneous NDG, assign the number of unpaid instalments for loans calculated as amortizing products + leasing contracts + other contracts"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="80"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 209 cases: _x000a_Indicator is missing -&gt; 0_x000a_indicator &lt; 0 -&gt; 0"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="81"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 211 - Number of days from last delinquency on loans: For each Client Homogeneous NDG, assign the number of days from last delinquency on loans"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="82"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 211 - Number of days from last delinquency on loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="83"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 219 - Monitoring rating: For each Client Homogeneous NDG, the indicator shows the  internal rating grade"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="84"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 219 - Monitoring rating. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="85"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 220 - IndicatorFor each Client Homogeneous NDG, the indicator is “true” (value 1) if the past due exceeded the materiality threshold, otherwise the field is 0."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="86"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 220 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="87"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 221 - The flag is valued at 1 if there is the presence of a past due towards employees and public creditors._x000a_The indicator is manual and there are no possible cases of error."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <s v="non valorizzati"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="88"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 221. Conventional value assigned, for the cases of Elementary variables are missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="89"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 222 - For each Client Homogeneous NDG, assign the value 0 o 1, depending on the value assigned in the CMC system._x000a_The flag is valued at 1 if there is the presence of a significant reduction in the value of the collateral if the sale thereof is necessary for the repayment of the loan."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <s v="non valorizzati"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="90"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 222. Conventional value assigned, for the cases of Elementary variables are missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="91"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 223 - For each Client Homogeneous NDG, assign the value 0 o 1, depending on the value assigned in the CMC system._x000a_The indicator is valued at 1 when there is a significant decrease in the forecast of future cash flows."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <s v="non valorizzati"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="92"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 223. Conventional value assigned, for the cases of Elementary variables are missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="93"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="indicator 224 - For each Client Homogeneous NDG, assign one of the following value:_x000a_- Broken Covenant_x000a_- Stessed Covenant_x000a_- Covenant expired and not monitored_x000a_- Covenant not respected and not recovered"/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <s v="non valorizzati"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="94"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 224. Conventional value assigned, for the cases of Elementary variables are missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="95"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Indicator 225 - For each Client Homogeneous NDG, assign the value 0 o 1, depending on the value assigned in the CMC system._x000a_The indicator is valued to 1 if a temporary suspension to the negotiation of a bond is verified for temporary difficulty of the issuing counterpart."/>
+    <s v="The values are correctly reported by SNDG in the test subset"/>
+    <s v="non valorizzati"/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="96"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="REQB0 - Indicators"/>
+    <s v="Error on Indicator 225. Conventional value assigned, for the cases of Elementary variables are missing"/>
+    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="97"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="BR01"/>
+    <s v="Past Due &gt; 90 Equals TRUE"/>
+    <s v="accensione della BR01 "/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="98"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="BR08"/>
+    <s v="Materiality threshold Equals TRUE"/>
+    <s v="accensione della BR08"/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="99"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="BR12"/>
+    <s v="Overdraft"/>
+    <s v="accensione della BR12"/>
+    <m/>
+    <x v="0"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="100"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="BR15"/>
+    <s v="Days Past Due &gt; 30 Equals TRUE"/>
+    <s v="accensione della BR15"/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="101"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="BR16"/>
+    <s v="Past due public creditors / employees Equals TRUE"/>
+    <s v="accensione della BR16"/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="102"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="Exception 1 – AQR Trigger"/>
+    <s v="BR15 = 1 or BR16 = 1"/>
+    <s v="assign final color = LIGHT BLUE"/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="103"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="Exception 3 - Other AQR "/>
+    <s v="BR12 = 1"/>
+    <s v="change color (if the result matrix is RED, the final color become LIGHT BLUE)"/>
+    <s v="???"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="104"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="FINAL COLOR"/>
+    <s v="&quot;Dark Blue&quot; color: number of cases that registrer the conditions AQR Fatal Indicators"/>
+    <s v="The number of cases reported is correct"/>
+    <s v="???"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="105"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="FINAL COLOR"/>
+    <s v="&quot;Light Blue&quot; color: number of cases that registrer the conditions "/>
+    <s v="The number of cases reported is correct"/>
+    <s v="???"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="106"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="FINAL COLOR"/>
+    <s v="&quot;Red&quot; color: number of cases that registrer the conditions "/>
+    <s v="The number of cases reported is correct"/>
+    <s v="???"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="107"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="FINAL COLOR"/>
+    <s v="&quot;Orange&quot; color: number of cases that registrer the conditions "/>
+    <s v="The number of cases reported is correct"/>
+    <s v="???"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="108"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="FINAL COLOR"/>
+    <s v="&quot;Yellow&quot; color: number of cases that registrer the conditions "/>
+    <s v="The number of cases reported is correct"/>
+    <s v="???"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="109"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="FINAL COLOR"/>
+    <s v="&quot;Green&quot; color: number of cases that registrer the conditions "/>
+    <s v="The number of cases reported is correct"/>
+    <s v="???"/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="1"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
 </file>
 
-<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="102">
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="110">
   <r>
     <s v="AAAP"/>
     <n v="1"/>
@@ -3008,7 +4443,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="10"/>
     <s v="EWS APP"/>
     <m/>
@@ -3022,7 +4457,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="11"/>
     <s v="EWS APP"/>
     <m/>
@@ -3064,7 +4499,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="14"/>
     <s v="EWS APP"/>
     <m/>
@@ -3078,7 +4513,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="15"/>
     <s v="EWS APP"/>
     <m/>
@@ -3092,7 +4527,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="16"/>
     <s v="EWS APP"/>
     <m/>
@@ -3106,7 +4541,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="17"/>
     <s v="EWS APP"/>
     <m/>
@@ -3120,7 +4555,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="18"/>
     <s v="EWS APP"/>
     <m/>
@@ -3134,7 +4569,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="19"/>
     <s v="EWS APP"/>
     <m/>
@@ -3148,7 +4583,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="20"/>
     <s v="EWS APP"/>
     <m/>
@@ -3162,7 +4597,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="21"/>
     <s v="EWS APP"/>
     <m/>
@@ -3260,7 +4695,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="28"/>
     <s v="EWS APP"/>
     <m/>
@@ -3274,7 +4709,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="29"/>
     <s v="EWS APP"/>
     <m/>
@@ -3288,7 +4723,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="30"/>
     <s v="EWS APP"/>
     <m/>
@@ -3302,7 +4737,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="31"/>
     <s v="EWS APP"/>
     <m/>
@@ -3414,7 +4849,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="39"/>
     <s v="EWS APP"/>
     <m/>
@@ -3428,7 +4863,7 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
+    <s v="AAAP"/>
     <n v="40"/>
     <s v="EWS APP"/>
     <m/>
@@ -4296,1715 +5731,136 @@
     <x v="1"/>
   </r>
   <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <x v="1"/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="102">
-  <r>
-    <s v="AAAP"/>
-    <n v="1"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 1 - Days past due: For each Client Homogeneous NDG, assign the count of the number of days past due at the report date "/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="2"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 1 - Days past due. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="3"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 2 - Past Due &gt; 90: For each Client Homogeneous NDG, the indicator is “true” (value 1) in presence of days past due &gt; 90 on any facility at the debtor level, 0 otherwise"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="4"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 2 - Past Due &gt; 90. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="5"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 6 - Credit lines revoked: For each Client Homogeneous NDG, the indicator is “true” (value 1) in presence of credit lines revoked, otherwise the field is null."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="6"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error or Indicator 6 - Credit lines revoked:  The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="7"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 7 - Overdue amount/exposure amount: For each Client Homogeneous NDG, the value associated to the indicator is the result of the Ratio between:_x000a_- Numerator: Overdue amount (the past due amount for cash loans for credit facilities: credit cards, overdraft, revolving and each loans without amortization schedule)_x000a_- Denominator: Exposure amount (the total on balance exposure on cash loans (credit facilities: credit cards, overdraft, revolving and each loans without amortization schedule)"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="8"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 7 - Overdue amount/exposure amount. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="9"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 8 - Account turnover oscillation: For each Client Homogeneous NDG, the indicator is the Ratio between the quaterly average and annual average of the sum of monthly inflows . The inflows are in current account."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="10"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 15: For each Client Homogeneous NDG, the indicator is “true” (value 1) in presence of overdraft limit average utilization &gt; 80% - 6 months. The overdraft limit is calculated at the last business day of the month."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="11"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 15:The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="12"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 16 - Default: For each Client Homogeneous NDG, the indicator is “true” (value 1) if the counterparty is classified as non performing, otherwise the field is null. Indicator is active if a client, in the moment of calculation of indicators, has a default longer than 5 days in the amount higher than 10.000 RSD (for SME and LC segments) and 1.000 RSD (for SB segment)."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="13"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 16 - Default. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="14"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 17: For each Client Homogeneous NDG, the indicator is “true” (value 1) if the counterparty is classified as defined as default according/article 178 of CRR, 0 otherwise"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="15"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 17 : The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="16"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 20 - Missing financial statements: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if client financial statements related to the previous closed financial year are missing, otherwise the field is null."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="17"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 20 - Missing financial statements. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="18"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 23: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) in presence of delinquency on contract/commitment, otherwise the field is null."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="19"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 23 : The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="20"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="indicator 28: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) in presence of change of main activity in the last 12 months, otherwise the field is null."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="21"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 28 : The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="22"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 31 - For each Client Homogeneous NDG, the value associated to the indicator is &quot;true&quot; (value 1) if (collateral expiry date - report date) &lt;= 90 days for collateral, otherwise the field is null. The indicator uses the minimal expiring date in case of more collaterals."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="23"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 31 - Past due amount. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="24"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 40 - Loan to value ratio: For each Client Homogeneous NDG, assign the value of the approved amount for loans/total value of collateral"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="25"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 40 - Loan to value ratio. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="26"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 44 - Past due amount: For each Client Homogeneous NDG, assign the amount past due at the report date"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="27"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 44 - Past due amount. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="28"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 45: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) if client don't breach any credit line covenant, 0 otherwise"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="29"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 45: The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="30"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 51 - Overdraft: For each Client Homogeneous NDG, the indicator is &quot;true&quot; (value 1) in presence of overdraft amount &gt; 0, 0 otherwise"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="31"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 51 - Overdraft. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="32"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 56 - Outstanding + overdue/Approved amount for loans: For each Client Homogeneous NDG, assign the value from ratio of:_x000a_Numerator: (Exposure on balance + overdue amount for loans)_x000a_Denominator: Approved amount for loans"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="33"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 56 - Outstanding + overdue/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="34"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 56 - Outstanding + overdue/Approved amount for loans. The conventional value (cut-off value) is assigned in cases of Indicator is out of cut-off limit"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="35"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 58 - Months with overdue: For each Client Homogeneous NDG, assign the Continuous number of months with overdue in the last quarter"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="36"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 58 - Months with overdue. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="37"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 65 -For each Client Homogeneous NDG, assign the value from ratio of:_x000a_Numerator: Total debt per interest due_x000a_Denominator: total debt per interest due older than 30 days"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="38"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 65 - Total debt/EBITDA. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="39"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 177 - For each Client Homogeneous NDG, assign the number of days of over limit overdraft for current accounts"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <n v="40"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error Indicator 177 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="41"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 190 - For each Client Homogeneous NDG, assign the amount overdue for other contracts (no loans, no amortizing products)"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="42"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 190 - Amount of unpaid overdue - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="43"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 191 - For each Client Homogeneous NDG, assign the amount overdue for leasing contracts"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="44"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 191 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="45"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 192 - For each Client Homogeneous NDG, assign the amount overdue for amortizing products"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="46"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 192 - Amount of unpaid overdue - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="47"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 193 - Amount of unpaid overdue - loans: For each Client Homogeneous NDG, assign the amount overdue for loans"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="48"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 193 - Amount of unpaid overdue - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="49"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 194 - For each Client Homogeneous NDG, assign the amount overdue for amortizing products"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="50"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 194 - Amount of unpaid instalments - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="51"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicaotr 195 - For each Client Homogeneous NDG, assign the amount of unpaid instalments for leasing contracts"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="52"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 195 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="53"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 196 - For each Client Homogeneous NDG, assign the amount of unpaid instalments for amortizing products"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="54"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 196 - Amount of unpaid instalments - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="55"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 197 - Amount of unpaid instalments - loans: For each Client Homogeneous NDG, assign the amount of unpaid instalments for loans"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="56"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 197 - Amount of unpaid instalments - loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="57"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 198 - For each Client Homogeneous NDG, assign the overdue amount for other contracts (no loans, no amortizing products)/Approved amount for other contracts (no loans, no amortizing products)"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="58"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 198 - Overdue amount/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="59"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicaor 199 - For each Client Homogeneous NDG, assign the overdue amount for leasing contracts/Approved amount for leasing contracts"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="60"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 199 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="61"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 200 - For each Client Homogeneous NDG, assign the overdue amount for amortizing products/Approved amount for amortizing products"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="62"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 200 - Overdue amount/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="63"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 201 - Overdue amount/Approved amount for loans: For each Client Homogeneous NDG, assign the overdue amount for loans/Approved amount for loans"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="64"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 201 - Overdue amount/Approved amount for loans. The indicator indeterminate forms are handled, conventional value is assigned, for the cases: _x000a_- DEN = 0 _x000a_- DEN is missing_x000a_- NUM is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="65"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 202 - For each Client Homogeneous NDG, assign the overdue amount for other contracts (no loans, no amortizing products)/Initial approved amount for other contracts (no loans, no amortizing products)"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="66"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error Indicator 202 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="67"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 203 - For each Client Homogeneous NDG, assign the value from ratio:_x000a_Numerator: Overdue amount for leasing contracts_x000a_Denominator: Initial approved amount for leasing contracts"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="68"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error Indicator 203 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="69"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 204 - For each Client Homogeneous NDG, assign the value from ratio:_x000a_Numerator: Overdue amount for amortizing products_x000a_Denominator: Initial approved amount for amortizing products"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="70"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error Indicator 204 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="71"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 205 - For each Client Homogeneous NDG, assign the value from ratio:_x000a_Numerator: Overdue amount_x000a_Denominator: Initial approved amount"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="72"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error Indicator 205 -The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="73"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 206 - For each Client Homogeneous NDG, assign the number of unpaid instalments for other contracts (no amortizing products, no leasing)"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="74"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 206  cases: _x000a_Indicator is missing -&gt; 0_x000a_indicator &lt; 0 -&gt; 0"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="75"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 207 - For each Client Homogeneous NDG, assign the number od unpaid instalments for leasing contracts"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="76"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error Indicator 207 -The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="77"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 208 - For each Client Homogeneous NDG, assign the number od unpaid instalments for amortizing products"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="78"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 208 cases: _x000a_Indicator is missing -&gt; 0_x000a_indicator &lt; 0 -&gt; 0"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="79"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 209 - For each Client Homogeneous NDG, assign the number of unpaid instalments for loans calculated as amortizing products + leasing contracts + other contracts"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="80"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 209 cases: _x000a_Indicator is missing -&gt; 0_x000a_indicator &lt; 0 -&gt; 0"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="81"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 211 - Number of days from last delinquency on loans: For each Client Homogeneous NDG, assign the number of days from last delinquency on loans"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="82"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 211 - Number of days from last delinquency on loans. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="83"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 219 - Monitoring rating: For each Client Homogeneous NDG, the indicator shows the  internal rating grade"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="84"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 219 - Monitoring rating. The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="85"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 220 - IndicatorFor each Client Homogeneous NDG, the indicator is “true” (value 1) if the past due exceeded the materiality threshold, otherwise the field is 0."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="86"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 220 - The conventional value is assigned for the cases: _x000a_Indicator is missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="87"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 221 - The flag is valued at 1 if there is the presence of a past due towards employees and public creditors._x000a_The indicator is manual and there are no possible cases of error."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <s v="non valorizzati"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="88"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 221. Conventional value assigned, for the cases of Elementary variables are missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="89"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 222 - For each Client Homogeneous NDG, assign the value 0 o 1, depending on the value assigned in the CMC system._x000a_The flag is valued at 1 if there is the presence of a significant reduction in the value of the collateral if the sale thereof is necessary for the repayment of the loan."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <s v="non valorizzati"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="90"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 222. Conventional value assigned, for the cases of Elementary variables are missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="91"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 223 - For each Client Homogeneous NDG, assign the value 0 o 1, depending on the value assigned in the CMC system._x000a_The indicator is valued at 1 when there is a significant decrease in the forecast of future cash flows."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <s v="non valorizzati"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="92"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 223. Conventional value assigned, for the cases of Elementary variables are missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="93"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="indicator 224 - For each Client Homogeneous NDG, assign one of the following value:_x000a_- Broken Covenant_x000a_- Stessed Covenant_x000a_- Covenant expired and not monitored_x000a_- Covenant not respected and not recovered"/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <s v="non valorizzati"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="94"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 224. Conventional value assigned, for the cases of Elementary variables are missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="95"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Indicator 225 - For each Client Homogeneous NDG, assign the value 0 o 1, depending on the value assigned in the CMC system._x000a_The indicator is valued to 1 if a temporary suspension to the negotiation of a bond is verified for temporary difficulty of the issuing counterpart."/>
-    <s v="The values are correctly reported by SNDG in the test subset"/>
-    <s v="non valorizzati"/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="96"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="REQB0 - Indicators"/>
-    <s v="Error on Indicator 225. Conventional value assigned, for the cases of Elementary variables are missing"/>
-    <s v="The conventional values are correctly reported by SNDG in the test subset"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="97"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="BR01"/>
-    <s v="Past Due &gt; 90 Equals TRUE"/>
-    <s v="accensione della BR01 "/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="98"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="BR08"/>
-    <s v="Materiality threshold Equals TRUE"/>
-    <s v="accensione della BR08"/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="99"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="BR12"/>
-    <s v="Overdraft"/>
-    <s v="accensione della BR12"/>
-    <m/>
-    <x v="0"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="100"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="BR15"/>
-    <s v="Days Past Due &gt; 30 Equals TRUE"/>
-    <s v="accensione della BR15"/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <s v="AAAP"/>
-    <n v="101"/>
-    <s v="EWS APP"/>
-    <m/>
-    <s v="BR16"/>
-    <s v="Past due public creditors / employees Equals TRUE"/>
-    <s v="accensione della BR16"/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <m/>
-    <x v="1"/>
-    <m/>
-    <m/>
+    <s v="AAAP"/>
+    <n v="102"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="Exception 1 – AQR Trigger"/>
+    <s v="BR15 = 1 or BR16 = 1"/>
+    <s v="assign final color = LIGHT BLUE"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="103"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="Exception 3 - Other AQR "/>
+    <s v="BR12 = 1"/>
+    <s v="change color (if the result matrix is RED, the final color become LIGHT BLUE)"/>
+    <s v="???"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="104"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="FINAL COLOR"/>
+    <s v="&quot;Dark Blue&quot; color: number of cases that registrer the conditions AQR Fatal Indicators"/>
+    <s v="The number of cases reported is correct"/>
+    <s v="???"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="105"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="FINAL COLOR"/>
+    <s v="&quot;Light Blue&quot; color: number of cases that registrer the conditions "/>
+    <s v="The number of cases reported is correct"/>
+    <s v="???"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="106"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="FINAL COLOR"/>
+    <s v="&quot;Red&quot; color: number of cases that registrer the conditions "/>
+    <s v="The number of cases reported is correct"/>
+    <s v="???"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="107"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="FINAL COLOR"/>
+    <s v="&quot;Orange&quot; color: number of cases that registrer the conditions "/>
+    <s v="The number of cases reported is correct"/>
+    <s v="???"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="108"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="FINAL COLOR"/>
+    <s v="&quot;Yellow&quot; color: number of cases that registrer the conditions "/>
+    <s v="The number of cases reported is correct"/>
+    <s v="???"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <s v="AAAP"/>
+    <n v="109"/>
+    <s v="EWS APP"/>
+    <m/>
+    <s v="FINAL COLOR"/>
+    <s v="&quot;Green&quot; color: number of cases that registrer the conditions "/>
+    <s v="The number of cases reported is correct"/>
+    <s v="???"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <x v="1"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L10:M13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="12">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow">
-      <items count="5">
-        <item m="1" x="2"/>
-        <item h="1" m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="11"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Conteggio" fld="1" subtotal="count" baseField="11" baseItem="0"/>
-  </dataFields>
-  <formats count="28">
-    <format dxfId="28">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="27">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="26">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="25">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="24">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="23">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="22">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="11" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="20">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="18">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="16">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="13">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="8">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="11" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
-  <location ref="B7:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="11">
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow">
-      <items count="6">
-        <item h="1" m="1" x="2"/>
-        <item h="1" m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Conteggio" fld="1" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="44">
-    <format dxfId="72">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="71">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="70">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="69">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="68">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="67">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="66">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="65">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="64">
-      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="63">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="62">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="61">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="60">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="59">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="58">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="57">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="56">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="55">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="53">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="52">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="51">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="50">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="49">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="48">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="47">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="46">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="45">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="44">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="42">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="40">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="39">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="38">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="37">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-    <format dxfId="31">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="8" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="30">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="29">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot3" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="H10:I14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="12">
     <pivotField showAll="0"/>
@@ -6052,107 +5908,467 @@
     <dataField name="Conteggio" fld="1" subtotal="count" baseField="10" baseItem="0"/>
   </dataFields>
   <formats count="29">
-    <format dxfId="101">
+    <format dxfId="28">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="100">
+    <format dxfId="27">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="99">
+    <format dxfId="26">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="98">
+    <format dxfId="25">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="97">
+    <format dxfId="24">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="96">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="95">
+    <format dxfId="22">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="94">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="93">
+    <format dxfId="20">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="92">
+    <format dxfId="19">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="91">
+    <format dxfId="18">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="90">
+    <format dxfId="17">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="89">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="88">
+    <format dxfId="15">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="14">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="13">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="12">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="84">
+    <format dxfId="11">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="10">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="82">
+    <format dxfId="9">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="81">
+    <format dxfId="8">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="7">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="79">
+    <format dxfId="6">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="78">
+    <format dxfId="5">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="77">
+    <format dxfId="4">
       <pivotArea field="10" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="76">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
-    <format dxfId="75">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="10" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="74">
+    <format dxfId="1">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
+    <format dxfId="0">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella pivot2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L10:M13" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="12">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow">
+      <items count="5">
+        <item m="1" x="2"/>
+        <item h="1" m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="11"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Conteggio" fld="1" subtotal="count" baseField="11" baseItem="0"/>
+  </dataFields>
+  <formats count="28">
+    <format dxfId="56">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="54">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="53">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="52">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="51">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="50">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="49">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="48">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="45">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="44">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="43">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="42">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="41">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="36">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="35">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="34">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="11" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea field="11" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabella_pivot2" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valori" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Stato Casi Test">
+  <location ref="B7:C10" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="11">
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow">
+      <items count="6">
+        <item h="1" m="1" x="2"/>
+        <item h="1" m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Conteggio" fld="1" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="44">
+    <format dxfId="100">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="99">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="98">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="97">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="96">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="95">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="94">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="93">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="92">
+      <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="91">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="90">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="89">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="88">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="87">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="86">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="85">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="84">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="83">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="82">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="81">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="80">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="79">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="78">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="77">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="76">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="75">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="74">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
     <format dxfId="73">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="72">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="71">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="70">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="69">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="68">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="67">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="66">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="65">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="64">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="63">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="62">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="61">
+      <pivotArea field="8" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="60">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="8" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="58">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -6848,80 +7064,80 @@
     </row>
     <row r="24" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A24" s="5"/>
-      <c r="B24" s="84"/>
-      <c r="C24" s="85"/>
-      <c r="D24" s="85"/>
-      <c r="E24" s="85"/>
-      <c r="F24" s="85"/>
-      <c r="G24" s="85"/>
-      <c r="H24" s="85"/>
-      <c r="I24" s="85"/>
-      <c r="J24" s="85"/>
-      <c r="K24" s="86"/>
+      <c r="B24" s="85"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="86"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="86"/>
+      <c r="H24" s="86"/>
+      <c r="I24" s="86"/>
+      <c r="J24" s="86"/>
+      <c r="K24" s="87"/>
       <c r="L24" s="7"/>
       <c r="M24" s="1"/>
     </row>
     <row r="25" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A25" s="5"/>
-      <c r="B25" s="87" t="s">
+      <c r="B25" s="88" t="s">
         <v>9</v>
       </c>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-      <c r="K25" s="89"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="89"/>
+      <c r="E25" s="89"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="89"/>
+      <c r="J25" s="89"/>
+      <c r="K25" s="90"/>
       <c r="L25" s="7"/>
       <c r="M25" s="1"/>
     </row>
     <row r="26" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A26" s="5"/>
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="88"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
-      <c r="H26" s="88"/>
-      <c r="I26" s="88"/>
-      <c r="J26" s="88"/>
-      <c r="K26" s="89"/>
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="89"/>
+      <c r="E26" s="89"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="89"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="90"/>
       <c r="L26" s="7"/>
       <c r="M26" s="1"/>
     </row>
     <row r="27" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A27" s="5"/>
-      <c r="B27" s="87" t="s">
+      <c r="B27" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="88"/>
-      <c r="D27" s="88"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
-      <c r="H27" s="88"/>
-      <c r="I27" s="88"/>
-      <c r="J27" s="88"/>
-      <c r="K27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
+      <c r="F27" s="89"/>
+      <c r="G27" s="89"/>
+      <c r="H27" s="89"/>
+      <c r="I27" s="89"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="90"/>
       <c r="L27" s="7"/>
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" ht="22.8" x14ac:dyDescent="0.4">
       <c r="A28" s="5"/>
-      <c r="B28" s="90"/>
-      <c r="C28" s="91"/>
-      <c r="D28" s="91"/>
-      <c r="E28" s="91"/>
-      <c r="F28" s="91"/>
-      <c r="G28" s="91"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="91"/>
-      <c r="J28" s="91"/>
-      <c r="K28" s="92"/>
+      <c r="B28" s="91"/>
+      <c r="C28" s="92"/>
+      <c r="D28" s="92"/>
+      <c r="E28" s="92"/>
+      <c r="F28" s="92"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="92"/>
+      <c r="I28" s="92"/>
+      <c r="J28" s="92"/>
+      <c r="K28" s="93"/>
       <c r="L28" s="7"/>
       <c r="M28" s="1"/>
     </row>
@@ -7047,161 +7263,161 @@
     </row>
     <row r="37" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A37" s="5"/>
-      <c r="B37" s="78" t="s">
+      <c r="B37" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="C37" s="78"/>
-      <c r="D37" s="79" t="s">
+      <c r="C37" s="83"/>
+      <c r="D37" s="84" t="s">
         <v>11</v>
       </c>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="79"/>
-      <c r="J37" s="79"/>
-      <c r="K37" s="79"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="84"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
       <c r="L37" s="7"/>
       <c r="M37" s="1"/>
     </row>
     <row r="38" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A38" s="5"/>
-      <c r="B38" s="78" t="s">
+      <c r="B38" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="C38" s="78"/>
-      <c r="D38" s="79" t="s">
+      <c r="C38" s="83"/>
+      <c r="D38" s="84" t="s">
         <v>111</v>
       </c>
-      <c r="E38" s="79"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="79"/>
-      <c r="H38" s="79"/>
-      <c r="I38" s="79"/>
-      <c r="J38" s="79"/>
-      <c r="K38" s="79"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="84"/>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
       <c r="L38" s="7"/>
       <c r="M38" s="1"/>
     </row>
     <row r="39" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A39" s="5"/>
-      <c r="B39" s="78" t="s">
+      <c r="B39" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="78"/>
-      <c r="D39" s="79" t="s">
+      <c r="C39" s="83"/>
+      <c r="D39" s="84" t="s">
         <v>14</v>
       </c>
-      <c r="E39" s="79"/>
-      <c r="F39" s="79"/>
-      <c r="G39" s="79"/>
-      <c r="H39" s="79"/>
-      <c r="I39" s="79"/>
-      <c r="J39" s="79"/>
-      <c r="K39" s="79"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="84"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
       <c r="L39" s="7"/>
       <c r="M39" s="1"/>
     </row>
     <row r="40" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A40" s="5"/>
-      <c r="B40" s="78" t="s">
+      <c r="B40" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="C40" s="78"/>
-      <c r="D40" s="79" t="s">
+      <c r="C40" s="83"/>
+      <c r="D40" s="84" t="s">
         <v>112</v>
       </c>
-      <c r="E40" s="79"/>
-      <c r="F40" s="79"/>
-      <c r="G40" s="79"/>
-      <c r="H40" s="79"/>
-      <c r="I40" s="79"/>
-      <c r="J40" s="79"/>
-      <c r="K40" s="79"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="84"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
       <c r="L40" s="7"/>
       <c r="M40" s="1"/>
     </row>
     <row r="41" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A41" s="5"/>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="83" t="s">
         <v>16</v>
       </c>
-      <c r="C41" s="78"/>
-      <c r="D41" s="79" t="s">
+      <c r="C41" s="83"/>
+      <c r="D41" s="84" t="s">
         <v>110</v>
       </c>
-      <c r="E41" s="79"/>
-      <c r="F41" s="79"/>
-      <c r="G41" s="79"/>
-      <c r="H41" s="79"/>
-      <c r="I41" s="79"/>
-      <c r="J41" s="79"/>
-      <c r="K41" s="79"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="84"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
       <c r="L41" s="7"/>
       <c r="M41" s="1"/>
     </row>
     <row r="42" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A42" s="5"/>
-      <c r="B42" s="78" t="s">
+      <c r="B42" s="83" t="s">
         <v>17</v>
       </c>
-      <c r="C42" s="78"/>
-      <c r="D42" s="83" t="s">
+      <c r="C42" s="83"/>
+      <c r="D42" s="94" t="s">
         <v>18</v>
       </c>
-      <c r="E42" s="82"/>
-      <c r="F42" s="79" t="s">
+      <c r="E42" s="95"/>
+      <c r="F42" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="79"/>
-      <c r="H42" s="79" t="s">
+      <c r="G42" s="84"/>
+      <c r="H42" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="I42" s="79"/>
-      <c r="J42" s="79"/>
-      <c r="K42" s="79"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
       <c r="L42" s="7"/>
       <c r="M42" s="1"/>
     </row>
     <row r="43" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A43" s="5"/>
-      <c r="B43" s="78" t="s">
+      <c r="B43" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C43" s="78"/>
-      <c r="D43" s="79" t="s">
+      <c r="C43" s="83"/>
+      <c r="D43" s="84" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="79"/>
-      <c r="F43" s="79"/>
-      <c r="G43" s="79"/>
-      <c r="H43" s="79"/>
-      <c r="I43" s="79"/>
-      <c r="J43" s="79"/>
-      <c r="K43" s="79"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="84"/>
+      <c r="H43" s="84"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
       <c r="L43" s="7"/>
       <c r="M43" s="1"/>
     </row>
     <row r="44" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A44" s="5"/>
-      <c r="B44" s="78" t="s">
+      <c r="B44" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="80">
+      <c r="C44" s="83"/>
+      <c r="D44" s="98">
         <v>42670</v>
       </c>
-      <c r="E44" s="81"/>
-      <c r="F44" s="82"/>
-      <c r="G44" s="79" t="s">
+      <c r="E44" s="99"/>
+      <c r="F44" s="95"/>
+      <c r="G44" s="84" t="s">
         <v>24</v>
       </c>
-      <c r="H44" s="79"/>
-      <c r="I44" s="79"/>
-      <c r="J44" s="80">
+      <c r="H44" s="84"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="98">
         <v>42670</v>
       </c>
-      <c r="K44" s="82"/>
+      <c r="K44" s="95"/>
       <c r="L44" s="7"/>
       <c r="M44" s="1"/>
     </row>
@@ -7252,35 +7468,35 @@
     </row>
     <row r="48" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A48" s="5"/>
-      <c r="B48" s="76" t="s">
+      <c r="B48" s="96" t="s">
         <v>25</v>
       </c>
-      <c r="C48" s="76"/>
-      <c r="D48" s="76"/>
-      <c r="E48" s="76"/>
-      <c r="F48" s="76"/>
-      <c r="G48" s="76"/>
-      <c r="H48" s="76"/>
-      <c r="I48" s="76"/>
-      <c r="J48" s="76"/>
-      <c r="K48" s="76"/>
+      <c r="C48" s="96"/>
+      <c r="D48" s="96"/>
+      <c r="E48" s="96"/>
+      <c r="F48" s="96"/>
+      <c r="G48" s="96"/>
+      <c r="H48" s="96"/>
+      <c r="I48" s="96"/>
+      <c r="J48" s="96"/>
+      <c r="K48" s="96"/>
       <c r="L48" s="7"/>
       <c r="M48" s="1"/>
     </row>
     <row r="49" spans="1:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A49" s="5"/>
-      <c r="B49" s="77" t="s">
+      <c r="B49" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="C49" s="77"/>
-      <c r="D49" s="77"/>
-      <c r="E49" s="77"/>
-      <c r="F49" s="77"/>
-      <c r="G49" s="77"/>
-      <c r="H49" s="77"/>
-      <c r="I49" s="77"/>
-      <c r="J49" s="77"/>
-      <c r="K49" s="77"/>
+      <c r="C49" s="97"/>
+      <c r="D49" s="97"/>
+      <c r="E49" s="97"/>
+      <c r="F49" s="97"/>
+      <c r="G49" s="97"/>
+      <c r="H49" s="97"/>
+      <c r="I49" s="97"/>
+      <c r="J49" s="97"/>
+      <c r="K49" s="97"/>
       <c r="L49" s="7"/>
       <c r="M49" s="1"/>
     </row>
@@ -7331,25 +7547,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="B37:C37"/>
-    <mergeCell ref="D37:K37"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B38:C38"/>
-    <mergeCell ref="D38:K38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:K39"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="D40:K40"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:K41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="F42:G42"/>
-    <mergeCell ref="H42:K42"/>
     <mergeCell ref="B48:K48"/>
     <mergeCell ref="B49:K49"/>
     <mergeCell ref="B43:C43"/>
@@ -7358,6 +7555,25 @@
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="G44:I44"/>
     <mergeCell ref="J44:K44"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:K41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="F42:G42"/>
+    <mergeCell ref="H42:K42"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:K38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:K39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:K40"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:K37"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="B28:K28"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7370,7 +7586,7 @@
   <dimension ref="A1:Q112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A99" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -7395,38 +7611,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="102" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
-      <c r="J1" s="96"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="98" t="s">
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="104"/>
+      <c r="L1" s="105" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="93" t="s">
+      <c r="A2" s="100" t="s">
         <v>29</v>
       </c>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="99"/>
+      <c r="B2" s="101"/>
+      <c r="C2" s="101"/>
+      <c r="D2" s="101"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="101"/>
+      <c r="L2" s="106"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="63" t="s">
@@ -7620,7 +7836,7 @@
         <v>55</v>
       </c>
       <c r="F8" s="68" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G8" s="69" t="s">
         <v>82</v>
@@ -7648,7 +7864,7 @@
         <v>55</v>
       </c>
       <c r="F9" s="68" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G9" s="69" t="s">
         <v>83</v>
@@ -7760,7 +7976,7 @@
         <v>55</v>
       </c>
       <c r="F13" s="68" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="G13" s="69" t="s">
         <v>82</v>
@@ -7788,7 +8004,7 @@
         <v>55</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G14" s="69" t="s">
         <v>83</v>
@@ -7872,7 +8088,7 @@
         <v>55</v>
       </c>
       <c r="F17" s="68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G17" s="69" t="s">
         <v>82</v>
@@ -7900,7 +8116,7 @@
         <v>55</v>
       </c>
       <c r="F18" s="68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G18" s="69" t="s">
         <v>83</v>
@@ -7928,7 +8144,7 @@
         <v>55</v>
       </c>
       <c r="F19" s="68" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G19" s="74" t="s">
         <v>82</v>
@@ -7956,7 +8172,7 @@
         <v>55</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G20" s="74" t="s">
         <v>83</v>
@@ -7984,7 +8200,7 @@
         <v>55</v>
       </c>
       <c r="F21" s="68" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G21" s="74" t="s">
         <v>82</v>
@@ -8012,7 +8228,7 @@
         <v>55</v>
       </c>
       <c r="F22" s="68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G22" s="74" t="s">
         <v>83</v>
@@ -8040,7 +8256,7 @@
         <v>55</v>
       </c>
       <c r="F23" s="68" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G23" s="74" t="s">
         <v>82</v>
@@ -8068,7 +8284,7 @@
         <v>55</v>
       </c>
       <c r="F24" s="68" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G24" s="74" t="s">
         <v>83</v>
@@ -8264,7 +8480,7 @@
         <v>55</v>
       </c>
       <c r="F31" s="68" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G31" s="69" t="s">
         <v>82</v>
@@ -8292,7 +8508,7 @@
         <v>55</v>
       </c>
       <c r="F32" s="68" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G32" s="69" t="s">
         <v>83</v>
@@ -8320,7 +8536,7 @@
         <v>55</v>
       </c>
       <c r="F33" s="68" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G33" s="74" t="s">
         <v>82</v>
@@ -8348,7 +8564,7 @@
         <v>55</v>
       </c>
       <c r="F34" s="68" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G34" s="74" t="s">
         <v>83</v>
@@ -8572,7 +8788,7 @@
         <v>55</v>
       </c>
       <c r="F42" s="68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G42" s="69" t="s">
         <v>82</v>
@@ -8600,7 +8816,7 @@
         <v>55</v>
       </c>
       <c r="F43" s="68" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G43" s="69" t="s">
         <v>83</v>
@@ -8684,7 +8900,7 @@
         <v>55</v>
       </c>
       <c r="F46" s="68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G46" s="69" t="s">
         <v>82</v>
@@ -8712,7 +8928,7 @@
         <v>55</v>
       </c>
       <c r="F47" s="68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G47" s="69" t="s">
         <v>83</v>
@@ -8908,7 +9124,7 @@
         <v>55</v>
       </c>
       <c r="F54" s="68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G54" s="69" t="s">
         <v>82</v>
@@ -8936,7 +9152,7 @@
         <v>55</v>
       </c>
       <c r="F55" s="68" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G55" s="69" t="s">
         <v>83</v>
@@ -9132,7 +9348,7 @@
         <v>55</v>
       </c>
       <c r="F62" s="68" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G62" s="69" t="s">
         <v>82</v>
@@ -9160,7 +9376,7 @@
         <v>55</v>
       </c>
       <c r="F63" s="68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="G63" s="69" t="s">
         <v>83</v>
@@ -9300,7 +9516,7 @@
         <v>55</v>
       </c>
       <c r="F68" s="68" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G68" s="69" t="s">
         <v>82</v>
@@ -9328,7 +9544,7 @@
         <v>55</v>
       </c>
       <c r="F69" s="68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G69" s="69" t="s">
         <v>83</v>
@@ -9356,7 +9572,7 @@
         <v>55</v>
       </c>
       <c r="F70" s="68" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G70" s="69" t="s">
         <v>82</v>
@@ -9384,7 +9600,7 @@
         <v>55</v>
       </c>
       <c r="F71" s="68" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G71" s="69" t="s">
         <v>83</v>
@@ -9412,7 +9628,7 @@
         <v>55</v>
       </c>
       <c r="F72" s="68" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G72" s="69" t="s">
         <v>82</v>
@@ -9440,7 +9656,7 @@
         <v>55</v>
       </c>
       <c r="F73" s="68" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G73" s="69" t="s">
         <v>83</v>
@@ -9468,7 +9684,7 @@
         <v>55</v>
       </c>
       <c r="F74" s="68" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G74" s="69" t="s">
         <v>82</v>
@@ -9496,7 +9712,7 @@
         <v>55</v>
       </c>
       <c r="F75" s="68" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G75" s="69" t="s">
         <v>83</v>
@@ -9580,7 +9796,7 @@
         <v>55</v>
       </c>
       <c r="F78" s="68" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G78" s="69" t="s">
         <v>82</v>
@@ -9608,7 +9824,7 @@
         <v>55</v>
       </c>
       <c r="F79" s="68" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G79" s="69" t="s">
         <v>83</v>
@@ -9804,7 +10020,7 @@
         <v>55</v>
       </c>
       <c r="F86" s="68" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G86" s="69" t="s">
         <v>82</v>
@@ -9832,7 +10048,7 @@
         <v>55</v>
       </c>
       <c r="F87" s="68" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G87" s="69" t="s">
         <v>83</v>
@@ -9860,7 +10076,7 @@
         <v>55</v>
       </c>
       <c r="F88" s="68" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G88" s="69" t="s">
         <v>82</v>
@@ -9888,7 +10104,7 @@
         <v>55</v>
       </c>
       <c r="F89" s="68" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G89" s="69" t="s">
         <v>83</v>
@@ -10255,13 +10471,13 @@
       </c>
       <c r="D102" s="65"/>
       <c r="E102" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="F102" s="68" t="s">
         <v>173</v>
       </c>
-      <c r="F102" s="68" t="s">
+      <c r="G102" s="69" t="s">
         <v>174</v>
-      </c>
-      <c r="G102" s="69" t="s">
-        <v>175</v>
       </c>
       <c r="H102" s="65"/>
       <c r="I102" s="65" t="s">
@@ -10286,10 +10502,10 @@
         <v>129</v>
       </c>
       <c r="F103" s="68" t="s">
+        <v>132</v>
+      </c>
+      <c r="G103" s="69" t="s">
         <v>130</v>
-      </c>
-      <c r="G103" s="69" t="s">
-        <v>131</v>
       </c>
       <c r="H103" s="65"/>
       <c r="I103" s="65"/>
@@ -10309,13 +10525,13 @@
       </c>
       <c r="D104" s="65"/>
       <c r="E104" s="67" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="F104" s="68" t="s">
+        <v>190</v>
+      </c>
+      <c r="G104" s="69" t="s">
         <v>133</v>
-      </c>
-      <c r="G104" s="69" t="s">
-        <v>134</v>
       </c>
       <c r="H104" s="65"/>
       <c r="I104" s="65"/>
@@ -10323,234 +10539,234 @@
       <c r="K104" s="65"/>
       <c r="L104" s="70"/>
     </row>
-    <row r="105" spans="1:12" s="121" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A105" s="115" t="s">
+    <row r="105" spans="1:12" s="82" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A105" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="B105" s="116">
+      <c r="B105" s="77">
         <v>102</v>
       </c>
-      <c r="C105" s="115" t="s">
+      <c r="C105" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="D105" s="115"/>
-      <c r="E105" s="117" t="s">
-        <v>177</v>
-      </c>
-      <c r="F105" s="118" t="s">
+      <c r="D105" s="76"/>
+      <c r="E105" s="78" t="s">
         <v>176</v>
       </c>
-      <c r="G105" s="119" t="s">
-        <v>181</v>
-      </c>
-      <c r="H105" s="115"/>
-      <c r="I105" s="115"/>
-      <c r="J105" s="120"/>
-      <c r="K105" s="115"/>
-      <c r="L105" s="120"/>
-    </row>
-    <row r="106" spans="1:12" s="121" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
-      <c r="A106" s="115" t="s">
+      <c r="F105" s="79" t="s">
+        <v>175</v>
+      </c>
+      <c r="G105" s="80" t="s">
+        <v>180</v>
+      </c>
+      <c r="H105" s="76"/>
+      <c r="I105" s="76"/>
+      <c r="J105" s="81"/>
+      <c r="K105" s="76"/>
+      <c r="L105" s="81"/>
+    </row>
+    <row r="106" spans="1:12" s="82" customFormat="1" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A106" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="B106" s="116">
+      <c r="B106" s="77">
         <f>1+B105</f>
         <v>103</v>
       </c>
-      <c r="C106" s="115" t="s">
+      <c r="C106" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="D106" s="115"/>
-      <c r="E106" s="117" t="s">
+      <c r="D106" s="76"/>
+      <c r="E106" s="78" t="s">
+        <v>177</v>
+      </c>
+      <c r="F106" s="79" t="s">
         <v>178</v>
       </c>
-      <c r="F106" s="118" t="s">
+      <c r="G106" s="80" t="s">
         <v>179</v>
       </c>
-      <c r="G106" s="119" t="s">
-        <v>180</v>
-      </c>
-      <c r="H106" s="115" t="s">
-        <v>182</v>
-      </c>
-      <c r="I106" s="115"/>
-      <c r="J106" s="120"/>
-      <c r="K106" s="115"/>
-      <c r="L106" s="120"/>
-    </row>
-    <row r="107" spans="1:12" s="121" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A107" s="115" t="s">
+      <c r="H106" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="I106" s="76"/>
+      <c r="J106" s="81"/>
+      <c r="K106" s="76"/>
+      <c r="L106" s="81"/>
+    </row>
+    <row r="107" spans="1:12" s="82" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A107" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="B107" s="116">
+      <c r="B107" s="77">
         <f t="shared" ref="B107:B111" si="0">1+B106</f>
         <v>104</v>
       </c>
-      <c r="C107" s="115" t="s">
+      <c r="C107" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="D107" s="115"/>
-      <c r="E107" s="117" t="s">
+      <c r="D107" s="76"/>
+      <c r="E107" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="F107" s="79" t="s">
         <v>183</v>
       </c>
-      <c r="F107" s="118" t="s">
-        <v>184</v>
-      </c>
-      <c r="G107" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="H107" s="115" t="s">
-        <v>182</v>
-      </c>
-      <c r="I107" s="115"/>
-      <c r="J107" s="120"/>
-      <c r="K107" s="115"/>
-      <c r="L107" s="120"/>
-    </row>
-    <row r="108" spans="1:12" s="121" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A108" s="115" t="s">
+      <c r="G107" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="H107" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="I107" s="76"/>
+      <c r="J107" s="81"/>
+      <c r="K107" s="76"/>
+      <c r="L107" s="81"/>
+    </row>
+    <row r="108" spans="1:12" s="82" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A108" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="B108" s="116">
+      <c r="B108" s="77">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="C108" s="115" t="s">
+      <c r="C108" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="D108" s="115"/>
-      <c r="E108" s="117" t="s">
-        <v>183</v>
-      </c>
-      <c r="F108" s="118" t="s">
-        <v>185</v>
-      </c>
-      <c r="G108" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="H108" s="115" t="s">
+      <c r="D108" s="76"/>
+      <c r="E108" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="I108" s="115"/>
-      <c r="J108" s="120"/>
-      <c r="K108" s="115"/>
-      <c r="L108" s="120"/>
-    </row>
-    <row r="109" spans="1:12" s="121" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A109" s="115" t="s">
+      <c r="F108" s="79" t="s">
+        <v>184</v>
+      </c>
+      <c r="G108" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="H108" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="I108" s="76"/>
+      <c r="J108" s="81"/>
+      <c r="K108" s="76"/>
+      <c r="L108" s="81"/>
+    </row>
+    <row r="109" spans="1:12" s="82" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A109" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="B109" s="116">
+      <c r="B109" s="77">
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="C109" s="115" t="s">
+      <c r="C109" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="D109" s="115"/>
-      <c r="E109" s="117" t="s">
-        <v>183</v>
-      </c>
-      <c r="F109" s="118" t="s">
-        <v>186</v>
-      </c>
-      <c r="G109" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="H109" s="115" t="s">
+      <c r="D109" s="76"/>
+      <c r="E109" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="I109" s="115"/>
-      <c r="J109" s="120"/>
-      <c r="K109" s="115"/>
-      <c r="L109" s="120"/>
-    </row>
-    <row r="110" spans="1:12" s="121" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A110" s="115" t="s">
+      <c r="F109" s="79" t="s">
+        <v>185</v>
+      </c>
+      <c r="G109" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="H109" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="I109" s="76"/>
+      <c r="J109" s="81"/>
+      <c r="K109" s="76"/>
+      <c r="L109" s="81"/>
+    </row>
+    <row r="110" spans="1:12" s="82" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A110" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="B110" s="116">
+      <c r="B110" s="77">
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="C110" s="115" t="s">
+      <c r="C110" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="D110" s="115"/>
-      <c r="E110" s="117" t="s">
-        <v>183</v>
-      </c>
-      <c r="F110" s="118" t="s">
-        <v>187</v>
-      </c>
-      <c r="G110" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="H110" s="115" t="s">
+      <c r="D110" s="76"/>
+      <c r="E110" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="I110" s="115"/>
-      <c r="J110" s="120"/>
-      <c r="K110" s="115"/>
-      <c r="L110" s="120"/>
-    </row>
-    <row r="111" spans="1:12" s="121" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A111" s="115" t="s">
+      <c r="F110" s="79" t="s">
+        <v>186</v>
+      </c>
+      <c r="G110" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="H110" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="I110" s="76"/>
+      <c r="J110" s="81"/>
+      <c r="K110" s="76"/>
+      <c r="L110" s="81"/>
+    </row>
+    <row r="111" spans="1:12" s="82" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A111" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="B111" s="116">
+      <c r="B111" s="77">
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="C111" s="115" t="s">
+      <c r="C111" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="D111" s="115"/>
-      <c r="E111" s="117" t="s">
-        <v>183</v>
-      </c>
-      <c r="F111" s="118" t="s">
-        <v>188</v>
-      </c>
-      <c r="G111" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="H111" s="115" t="s">
+      <c r="D111" s="76"/>
+      <c r="E111" s="78" t="s">
         <v>182</v>
       </c>
-      <c r="I111" s="115"/>
-      <c r="J111" s="120"/>
-      <c r="K111" s="115"/>
-      <c r="L111" s="120"/>
-    </row>
-    <row r="112" spans="1:12" s="121" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A112" s="115" t="s">
+      <c r="F111" s="79" t="s">
+        <v>187</v>
+      </c>
+      <c r="G111" s="80" t="s">
+        <v>189</v>
+      </c>
+      <c r="H111" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="I111" s="76"/>
+      <c r="J111" s="81"/>
+      <c r="K111" s="76"/>
+      <c r="L111" s="81"/>
+    </row>
+    <row r="112" spans="1:12" s="82" customFormat="1" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A112" s="76" t="s">
         <v>108</v>
       </c>
-      <c r="B112" s="116">
+      <c r="B112" s="77">
         <f t="shared" ref="B112" si="1">1+B111</f>
         <v>109</v>
       </c>
-      <c r="C112" s="115" t="s">
+      <c r="C112" s="76" t="s">
         <v>109</v>
       </c>
-      <c r="D112" s="115"/>
-      <c r="E112" s="117" t="s">
-        <v>183</v>
-      </c>
-      <c r="F112" s="118" t="s">
+      <c r="D112" s="76"/>
+      <c r="E112" s="78" t="s">
+        <v>182</v>
+      </c>
+      <c r="F112" s="79" t="s">
+        <v>188</v>
+      </c>
+      <c r="G112" s="80" t="s">
         <v>189</v>
       </c>
-      <c r="G112" s="119" t="s">
-        <v>190</v>
-      </c>
-      <c r="H112" s="115" t="s">
-        <v>182</v>
-      </c>
-      <c r="I112" s="115"/>
-      <c r="J112" s="120"/>
-      <c r="K112" s="115"/>
-      <c r="L112" s="120"/>
+      <c r="H112" s="76" t="s">
+        <v>181</v>
+      </c>
+      <c r="I112" s="76"/>
+      <c r="J112" s="81"/>
+      <c r="K112" s="76"/>
+      <c r="L112" s="81"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10609,40 +10825,40 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="106" t="s">
+      <c r="A1" s="113" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="108"/>
-      <c r="G1" s="106" t="s">
+      <c r="B1" s="114"/>
+      <c r="C1" s="114"/>
+      <c r="D1" s="114"/>
+      <c r="E1" s="115"/>
+      <c r="G1" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
-      <c r="N1" s="107"/>
-      <c r="O1" s="108"/>
+      <c r="H1" s="114"/>
+      <c r="I1" s="114"/>
+      <c r="J1" s="114"/>
+      <c r="K1" s="114"/>
+      <c r="L1" s="114"/>
+      <c r="M1" s="114"/>
+      <c r="N1" s="114"/>
+      <c r="O1" s="115"/>
     </row>
     <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="109"/>
-      <c r="B2" s="110"/>
-      <c r="C2" s="110"/>
-      <c r="D2" s="110"/>
-      <c r="E2" s="111"/>
-      <c r="G2" s="109"/>
-      <c r="H2" s="110"/>
-      <c r="I2" s="110"/>
-      <c r="J2" s="110"/>
-      <c r="K2" s="110"/>
-      <c r="L2" s="110"/>
-      <c r="M2" s="110"/>
-      <c r="N2" s="110"/>
-      <c r="O2" s="111"/>
+      <c r="A2" s="116"/>
+      <c r="B2" s="117"/>
+      <c r="C2" s="117"/>
+      <c r="D2" s="117"/>
+      <c r="E2" s="118"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="117"/>
+      <c r="I2" s="117"/>
+      <c r="J2" s="117"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="117"/>
+      <c r="M2" s="117"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="118"/>
     </row>
     <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="30"/>
@@ -10684,11 +10900,11 @@
     </row>
     <row r="5" spans="1:15" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20"/>
-      <c r="B5" s="100" t="s">
+      <c r="B5" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="101"/>
-      <c r="D5" s="102"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
       <c r="E5" s="18"/>
       <c r="G5" s="20"/>
       <c r="H5" s="47">
@@ -10711,9 +10927,9 @@
     </row>
     <row r="6" spans="1:15" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="20"/>
-      <c r="B6" s="103"/>
-      <c r="C6" s="104"/>
-      <c r="D6" s="105"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
       <c r="E6" s="18"/>
       <c r="G6" s="20"/>
       <c r="H6" s="42"/>
@@ -10759,17 +10975,17 @@
       </c>
       <c r="E8" s="18"/>
       <c r="G8" s="19"/>
-      <c r="H8" s="100" t="s">
+      <c r="H8" s="107" t="s">
         <v>50</v>
       </c>
-      <c r="I8" s="101"/>
-      <c r="J8" s="102"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="109"/>
       <c r="K8" s="24"/>
-      <c r="L8" s="100" t="s">
+      <c r="L8" s="107" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="101"/>
-      <c r="N8" s="102"/>
+      <c r="M8" s="108"/>
+      <c r="N8" s="109"/>
       <c r="O8" s="18"/>
     </row>
     <row r="9" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -10786,13 +11002,13 @@
       </c>
       <c r="E9" s="18"/>
       <c r="G9" s="33"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="114"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121"/>
       <c r="K9" s="24"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="113"/>
-      <c r="N9" s="114"/>
+      <c r="L9" s="119"/>
+      <c r="M9" s="120"/>
+      <c r="N9" s="121"/>
       <c r="O9" s="18"/>
     </row>
     <row r="10" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -11169,7 +11385,7 @@
     <mergeCell ref="H8:J9"/>
   </mergeCells>
   <conditionalFormatting sqref="J5">
-    <cfRule type="expression" dxfId="0" priority="1">
+    <cfRule type="expression" dxfId="101" priority="1">
       <formula>"&lt;25"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -11185,15 +11401,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Unknown Document Type" ma:contentTypeID="0x010104" ma:contentTypeVersion="0" ma:contentTypeDescription="" ma:contentTypeScope="" ma:versionID="05d83ceaa0bbd2e3bc716e6e66bd857a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b3d69fe45253d5ff147bb69036b756a7">
     <xsd:element name="properties">
@@ -11307,6 +11514,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C5EE125-43E6-46CF-BE7E-DF899F9AE08F}">
   <ds:schemaRefs>
@@ -11323,14 +11539,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4302E80F-5264-4B4D-ABB5-B564D1D5A2D2}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11344,4 +11552,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C3A56FCF-C5F4-4BE8-A3D4-155BB73757FB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>